--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y367"/>
+  <dimension ref="A1:Y370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27617,6 +27617,249 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>386.35</v>
+      </c>
+      <c r="C368" t="n">
+        <v>389.1555555555556</v>
+      </c>
+      <c r="D368" t="n">
+        <v>388.0890909090909</v>
+      </c>
+      <c r="E368" t="n">
+        <v>388.3571428571428</v>
+      </c>
+      <c r="F368" t="n">
+        <v>400.6071428571428</v>
+      </c>
+      <c r="G368" t="n">
+        <v>391.0155555555555</v>
+      </c>
+      <c r="H368" t="n">
+        <v>394.02</v>
+      </c>
+      <c r="I368" t="n">
+        <v>396.32</v>
+      </c>
+      <c r="J368" t="n">
+        <v>400.56</v>
+      </c>
+      <c r="K368" t="n">
+        <v>384.5166666666667</v>
+      </c>
+      <c r="L368" t="n">
+        <v>385.8423076923077</v>
+      </c>
+      <c r="M368" t="n">
+        <v>395.83</v>
+      </c>
+      <c r="N368" t="n">
+        <v>396.2966666666667</v>
+      </c>
+      <c r="O368" t="n">
+        <v>397.28</v>
+      </c>
+      <c r="P368" t="n">
+        <v>400.624761904762</v>
+      </c>
+      <c r="Q368" t="n">
+        <v>403.0990909090909</v>
+      </c>
+      <c r="R368" t="n">
+        <v>408.9890909090909</v>
+      </c>
+      <c r="S368" t="n">
+        <v>395.7447619047619</v>
+      </c>
+      <c r="T368" t="n">
+        <v>394.62</v>
+      </c>
+      <c r="U368" t="n">
+        <v>395.54</v>
+      </c>
+      <c r="V368" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="W368" t="n">
+        <v>396.85</v>
+      </c>
+      <c r="X368" t="n">
+        <v>394.47</v>
+      </c>
+      <c r="Y368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>387.57</v>
+      </c>
+      <c r="C369" t="n">
+        <v>387.9744444444444</v>
+      </c>
+      <c r="D369" t="n">
+        <v>391.3027272727272</v>
+      </c>
+      <c r="E369" t="n">
+        <v>378.83</v>
+      </c>
+      <c r="F369" t="n">
+        <v>380.29</v>
+      </c>
+      <c r="G369" t="n">
+        <v>381.8744444444445</v>
+      </c>
+      <c r="H369" t="n">
+        <v>380.81</v>
+      </c>
+      <c r="I369" t="n">
+        <v>385.96</v>
+      </c>
+      <c r="J369" t="n">
+        <v>375.12</v>
+      </c>
+      <c r="K369" t="n">
+        <v>375.4833333333333</v>
+      </c>
+      <c r="L369" t="n">
+        <v>378.6707692307692</v>
+      </c>
+      <c r="M369" t="n">
+        <v>379.18</v>
+      </c>
+      <c r="N369" t="n">
+        <v>387.7733333333333</v>
+      </c>
+      <c r="O369" t="n">
+        <v>389.65</v>
+      </c>
+      <c r="P369" t="n">
+        <v>385.5666666666667</v>
+      </c>
+      <c r="Q369" t="n">
+        <v>383.8027272727272</v>
+      </c>
+      <c r="R369" t="n">
+        <v>389.6027272727272</v>
+      </c>
+      <c r="S369" t="n">
+        <v>393.1466666666667</v>
+      </c>
+      <c r="T369" t="n">
+        <v>398.61</v>
+      </c>
+      <c r="U369" t="n">
+        <v>395.95</v>
+      </c>
+      <c r="V369" t="n">
+        <v>398.37</v>
+      </c>
+      <c r="W369" t="n">
+        <v>402.31</v>
+      </c>
+      <c r="X369" t="n">
+        <v>407.31</v>
+      </c>
+      <c r="Y369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>390.49</v>
+      </c>
+      <c r="C370" t="n">
+        <v>380.2055555555555</v>
+      </c>
+      <c r="D370" t="n">
+        <v>381.8881818181818</v>
+      </c>
+      <c r="E370" t="n">
+        <v>380.5857142857143</v>
+      </c>
+      <c r="F370" t="n">
+        <v>386.3557142857143</v>
+      </c>
+      <c r="G370" t="n">
+        <v>380.7055555555555</v>
+      </c>
+      <c r="H370" t="n">
+        <v>390.56</v>
+      </c>
+      <c r="I370" t="n">
+        <v>385.79</v>
+      </c>
+      <c r="J370" t="n">
+        <v>388.98</v>
+      </c>
+      <c r="K370" t="n">
+        <v>383.3366666666667</v>
+      </c>
+      <c r="L370" t="n">
+        <v>382.3053846153846</v>
+      </c>
+      <c r="M370" t="n">
+        <v>390.06</v>
+      </c>
+      <c r="N370" t="n">
+        <v>394.3566666666667</v>
+      </c>
+      <c r="O370" t="n">
+        <v>393.67</v>
+      </c>
+      <c r="P370" t="n">
+        <v>391.6304761904762</v>
+      </c>
+      <c r="Q370" t="n">
+        <v>393.0381818181818</v>
+      </c>
+      <c r="R370" t="n">
+        <v>396.0581818181818</v>
+      </c>
+      <c r="S370" t="n">
+        <v>398.0204761904762</v>
+      </c>
+      <c r="T370" t="n">
+        <v>396.5700000000001</v>
+      </c>
+      <c r="U370" t="n">
+        <v>398.62</v>
+      </c>
+      <c r="V370" t="n">
+        <v>402.42</v>
+      </c>
+      <c r="W370" t="n">
+        <v>399.72</v>
+      </c>
+      <c r="X370" t="n">
+        <v>401.22</v>
+      </c>
+      <c r="Y370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27628,7 +27871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32076,6 +32319,36 @@
       </c>
       <c r="B444" t="n">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>0.43</v>
       </c>
     </row>
   </sheetData>
@@ -32244,28 +32517,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1106837257051422</v>
+        <v>0.1165204131063327</v>
       </c>
       <c r="J2" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K2" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="L2" t="n">
-        <v>0.009023696477438614</v>
+        <v>0.01015970626387919</v>
       </c>
       <c r="M2" t="n">
-        <v>6.413586363902644</v>
+        <v>6.381716814209112</v>
       </c>
       <c r="N2" t="n">
-        <v>72.06357252422059</v>
+        <v>71.49878276636576</v>
       </c>
       <c r="O2" t="n">
-        <v>8.489026594623237</v>
+        <v>8.455695285803868</v>
       </c>
       <c r="P2" t="n">
-        <v>382.0938948554391</v>
+        <v>382.0358454313513</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -32321,28 +32594,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02437913379870312</v>
+        <v>0.03185058944780361</v>
       </c>
       <c r="J3" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K3" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003990255962571521</v>
+        <v>0.0006906730018558793</v>
       </c>
       <c r="M3" t="n">
-        <v>7.009525933579747</v>
+        <v>6.991492943410811</v>
       </c>
       <c r="N3" t="n">
-        <v>79.39984541729606</v>
+        <v>78.96183515987808</v>
       </c>
       <c r="O3" t="n">
-        <v>8.910659089949299</v>
+        <v>8.886047217963569</v>
       </c>
       <c r="P3" t="n">
-        <v>380.935694261298</v>
+        <v>380.8611223109003</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -32398,28 +32671,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01602350307824974</v>
+        <v>0.02387021365043976</v>
       </c>
       <c r="J4" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K4" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0001983869507670155</v>
+        <v>0.00044613004611882</v>
       </c>
       <c r="M4" t="n">
-        <v>6.256767090083205</v>
+        <v>6.246179772753557</v>
       </c>
       <c r="N4" t="n">
-        <v>69.02753039149039</v>
+        <v>68.70312452877702</v>
       </c>
       <c r="O4" t="n">
-        <v>8.308280832488174</v>
+        <v>8.288734796624695</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2363815023072</v>
+        <v>382.1581481738674</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -32475,28 +32748,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09392956518206338</v>
+        <v>0.1018680835028059</v>
       </c>
       <c r="J5" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K5" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L5" t="n">
-        <v>0.005054276839530414</v>
+        <v>0.006022477840745832</v>
       </c>
       <c r="M5" t="n">
-        <v>7.64698686765964</v>
+        <v>7.614187630242554</v>
       </c>
       <c r="N5" t="n">
-        <v>92.97758852853553</v>
+        <v>92.45257522337455</v>
       </c>
       <c r="O5" t="n">
-        <v>9.642488710314135</v>
+        <v>9.615226218003118</v>
       </c>
       <c r="P5" t="n">
-        <v>375.6502956696074</v>
+        <v>375.5707890922665</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -32552,28 +32825,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1010071511575628</v>
+        <v>0.1175651116614635</v>
       </c>
       <c r="J6" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K6" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L6" t="n">
-        <v>0.004482629027522722</v>
+        <v>0.006092416895792097</v>
       </c>
       <c r="M6" t="n">
-        <v>8.648955878057016</v>
+        <v>8.655457039514037</v>
       </c>
       <c r="N6" t="n">
-        <v>123.4772099039999</v>
+        <v>123.8593673660851</v>
       </c>
       <c r="O6" t="n">
-        <v>11.11202996324254</v>
+        <v>11.12921234257326</v>
       </c>
       <c r="P6" t="n">
-        <v>376.8185679786945</v>
+        <v>376.6542104809607</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -32629,28 +32902,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.09790509518000398</v>
+        <v>0.1050701274757079</v>
       </c>
       <c r="J7" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K7" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L7" t="n">
-        <v>0.006008385589774345</v>
+        <v>0.007006733735117954</v>
       </c>
       <c r="M7" t="n">
-        <v>7.193813196581258</v>
+        <v>7.159835217715449</v>
       </c>
       <c r="N7" t="n">
-        <v>86.85267308189933</v>
+        <v>86.38609994785135</v>
       </c>
       <c r="O7" t="n">
-        <v>9.319478155020233</v>
+        <v>9.294412297065982</v>
       </c>
       <c r="P7" t="n">
-        <v>377.8948527358974</v>
+        <v>377.8240865580356</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -32706,28 +32979,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1391693098310205</v>
+        <v>0.1456935409827964</v>
       </c>
       <c r="J8" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K8" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01281298176680068</v>
+        <v>0.01420064349660577</v>
       </c>
       <c r="M8" t="n">
-        <v>7.108703461271193</v>
+        <v>7.099085151657087</v>
       </c>
       <c r="N8" t="n">
-        <v>81.96005432607156</v>
+        <v>81.60319355083361</v>
       </c>
       <c r="O8" t="n">
-        <v>9.053179238591907</v>
+        <v>9.033448596789247</v>
       </c>
       <c r="P8" t="n">
-        <v>381.191061493891</v>
+        <v>381.1267500135306</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -32783,28 +33056,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08238577857019617</v>
+        <v>0.08403646584233197</v>
       </c>
       <c r="J9" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K9" t="n">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004292528874304202</v>
+        <v>0.004535859647654017</v>
       </c>
       <c r="M9" t="n">
-        <v>6.758189823314869</v>
+        <v>6.733727990292724</v>
       </c>
       <c r="N9" t="n">
-        <v>86.48415617279151</v>
+        <v>85.88842692761055</v>
       </c>
       <c r="O9" t="n">
-        <v>9.299685810434216</v>
+        <v>9.267600926216588</v>
       </c>
       <c r="P9" t="n">
-        <v>386.3252289137091</v>
+        <v>386.3091877080317</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -32860,28 +33133,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.105343679791668</v>
+        <v>0.1100459241068377</v>
       </c>
       <c r="J10" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K10" t="n">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005639241650794102</v>
+        <v>0.006197675890856846</v>
       </c>
       <c r="M10" t="n">
-        <v>8.138448070701807</v>
+        <v>8.150526678818034</v>
       </c>
       <c r="N10" t="n">
-        <v>108.0515579691738</v>
+        <v>108.1212570913738</v>
       </c>
       <c r="O10" t="n">
-        <v>10.39478513338173</v>
+        <v>10.39813719333294</v>
       </c>
       <c r="P10" t="n">
-        <v>382.8260567971857</v>
+        <v>382.7800381485151</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -32937,28 +33210,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1630620632324899</v>
+        <v>0.1628193626991966</v>
       </c>
       <c r="J11" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K11" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01685596910342602</v>
+        <v>0.01707647787639199</v>
       </c>
       <c r="M11" t="n">
-        <v>6.778383631292996</v>
+        <v>6.749196185671188</v>
       </c>
       <c r="N11" t="n">
-        <v>85.43860615994667</v>
+        <v>84.78019666930223</v>
       </c>
       <c r="O11" t="n">
-        <v>9.243300609627855</v>
+        <v>9.207616231647702</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1088698183152</v>
+        <v>377.1112235017327</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
@@ -33014,28 +33287,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1772350669112971</v>
+        <v>0.1766105017919205</v>
       </c>
       <c r="J12" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K12" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02310932577406577</v>
+        <v>0.02332210131471024</v>
       </c>
       <c r="M12" t="n">
-        <v>6.505750388643659</v>
+        <v>6.46814030939642</v>
       </c>
       <c r="N12" t="n">
-        <v>73.51502244899341</v>
+        <v>72.90557258070068</v>
       </c>
       <c r="O12" t="n">
-        <v>8.574090181995604</v>
+        <v>8.538476010430706</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1309896122121</v>
+        <v>378.1371262987599</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
@@ -33091,28 +33364,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2253254221015645</v>
+        <v>0.2266355311940486</v>
       </c>
       <c r="J13" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K13" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02726396416024413</v>
+        <v>0.0279098540724656</v>
       </c>
       <c r="M13" t="n">
-        <v>7.784955685675674</v>
+        <v>7.771554531621572</v>
       </c>
       <c r="N13" t="n">
-        <v>101.0180968053144</v>
+        <v>100.5251014839484</v>
       </c>
       <c r="O13" t="n">
-        <v>10.05077593050976</v>
+        <v>10.02622069794737</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8401506586317</v>
+        <v>381.827332669987</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
@@ -33168,28 +33441,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2333380576973566</v>
+        <v>0.2326154550896406</v>
       </c>
       <c r="J14" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K14" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03536578481193808</v>
+        <v>0.03569552118172858</v>
       </c>
       <c r="M14" t="n">
-        <v>7.135154118759973</v>
+        <v>7.098169800444888</v>
       </c>
       <c r="N14" t="n">
-        <v>84.01271366153924</v>
+        <v>83.35150729982249</v>
       </c>
       <c r="O14" t="n">
-        <v>9.16584495076909</v>
+        <v>9.129704666626543</v>
       </c>
       <c r="P14" t="n">
-        <v>387.309611253541</v>
+        <v>387.3165706761595</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
@@ -33245,28 +33518,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2442687615482574</v>
+        <v>0.2404704373959643</v>
       </c>
       <c r="J15" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K15" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04107373642124423</v>
+        <v>0.04047661892490262</v>
       </c>
       <c r="M15" t="n">
-        <v>6.814763812695874</v>
+        <v>6.779640312937506</v>
       </c>
       <c r="N15" t="n">
-        <v>78.56834253712769</v>
+        <v>77.96022652703451</v>
       </c>
       <c r="O15" t="n">
-        <v>8.863878526758345</v>
+        <v>8.829508849705883</v>
       </c>
       <c r="P15" t="n">
-        <v>389.5422330985126</v>
+        <v>389.5788181650475</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
@@ -33316,28 +33589,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2337724040750234</v>
+        <v>0.2314488475292932</v>
       </c>
       <c r="J16" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K16" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0346170410282266</v>
+        <v>0.03440387763881603</v>
       </c>
       <c r="M16" t="n">
-        <v>7.335020097674671</v>
+        <v>7.320326568345447</v>
       </c>
       <c r="N16" t="n">
-        <v>86.23138082593837</v>
+        <v>85.79457899424273</v>
       </c>
       <c r="O16" t="n">
-        <v>9.286085333763543</v>
+        <v>9.262536315407498</v>
       </c>
       <c r="P16" t="n">
-        <v>388.013516299477</v>
+        <v>388.0358262347997</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
@@ -33393,28 +33666,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1987441622654091</v>
+        <v>0.1987974650023741</v>
       </c>
       <c r="J17" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K17" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02738595590927528</v>
+        <v>0.02766663746022213</v>
       </c>
       <c r="M17" t="n">
-        <v>7.071268016089724</v>
+        <v>7.066075202794639</v>
       </c>
       <c r="N17" t="n">
-        <v>79.02825585402834</v>
+        <v>78.87080480613078</v>
       </c>
       <c r="O17" t="n">
-        <v>8.889783791185719</v>
+        <v>8.880923646002749</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2213407256308</v>
+        <v>388.2208967928148</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
@@ -33470,28 +33743,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1676737371860416</v>
+        <v>0.1770857726614639</v>
       </c>
       <c r="J18" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K18" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01700208117170243</v>
+        <v>0.01906357301404094</v>
       </c>
       <c r="M18" t="n">
-        <v>7.38691746501051</v>
+        <v>7.386110848772805</v>
       </c>
       <c r="N18" t="n">
-        <v>91.75411729161588</v>
+        <v>91.7932679612809</v>
       </c>
       <c r="O18" t="n">
-        <v>9.578836948795812</v>
+        <v>9.580880333313891</v>
       </c>
       <c r="P18" t="n">
-        <v>388.3213931998147</v>
+        <v>388.2303051239288</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
@@ -33541,28 +33814,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2241772201996707</v>
+        <v>0.2277222742031906</v>
       </c>
       <c r="J19" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K19" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02415978620848425</v>
+        <v>0.02532319558072638</v>
       </c>
       <c r="M19" t="n">
-        <v>8.055651204527123</v>
+        <v>8.001731864604945</v>
       </c>
       <c r="N19" t="n">
-        <v>112.2839003857034</v>
+        <v>111.2980016334083</v>
       </c>
       <c r="O19" t="n">
-        <v>10.59640978755085</v>
+        <v>10.54978680511641</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8694783967248</v>
+        <v>387.8346404588806</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
@@ -33618,28 +33891,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2803856469012814</v>
+        <v>0.2830818037442732</v>
       </c>
       <c r="J20" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K20" t="n">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03925898754148927</v>
+        <v>0.0406752415272752</v>
       </c>
       <c r="M20" t="n">
-        <v>7.9572624911449</v>
+        <v>7.898555744754176</v>
       </c>
       <c r="N20" t="n">
-        <v>107.9263320208796</v>
+        <v>106.9231979265739</v>
       </c>
       <c r="O20" t="n">
-        <v>10.3887598884987</v>
+        <v>10.34036739804606</v>
       </c>
       <c r="P20" t="n">
-        <v>387.9368544600638</v>
+        <v>387.910744857441</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -33695,28 +33968,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1555971098124463</v>
+        <v>0.1599207563293375</v>
       </c>
       <c r="J21" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K21" t="n">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0143676771200536</v>
+        <v>0.01545446703195963</v>
       </c>
       <c r="M21" t="n">
-        <v>7.398986999406043</v>
+        <v>7.348112516174145</v>
       </c>
       <c r="N21" t="n">
-        <v>94.07755291164709</v>
+        <v>93.18600930328071</v>
       </c>
       <c r="O21" t="n">
-        <v>9.699358376286913</v>
+        <v>9.653290076615367</v>
       </c>
       <c r="P21" t="n">
-        <v>390.4427413259504</v>
+        <v>390.4016362273488</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -33766,28 +34039,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.2059173300346325</v>
+        <v>0.2135105043916916</v>
       </c>
       <c r="J22" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K22" t="n">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0189600727786754</v>
+        <v>0.0207282310097382</v>
       </c>
       <c r="M22" t="n">
-        <v>8.264960669815144</v>
+        <v>8.217569251601972</v>
       </c>
       <c r="N22" t="n">
-        <v>123.2509884172066</v>
+        <v>122.2011351264226</v>
       </c>
       <c r="O22" t="n">
-        <v>11.10184617157014</v>
+        <v>11.05446222692097</v>
       </c>
       <c r="P22" t="n">
-        <v>390.2387243598308</v>
+        <v>390.1664209558807</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
@@ -33843,28 +34116,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2423998859409355</v>
+        <v>0.2495214558066759</v>
       </c>
       <c r="J23" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K23" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02459209410879137</v>
+        <v>0.02648712604002079</v>
       </c>
       <c r="M23" t="n">
-        <v>9.002444043063603</v>
+        <v>8.949222560645696</v>
       </c>
       <c r="N23" t="n">
-        <v>130.6445365578412</v>
+        <v>129.5186716964694</v>
       </c>
       <c r="O23" t="n">
-        <v>11.42998410138182</v>
+        <v>11.38062703441552</v>
       </c>
       <c r="P23" t="n">
-        <v>389.6363703200217</v>
+        <v>389.5681898751698</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
@@ -33920,28 +34193,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2472020648620526</v>
+        <v>0.2525079153955398</v>
       </c>
       <c r="J24" t="n">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="K24" t="n">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02500709597575534</v>
+        <v>0.0264981471552842</v>
       </c>
       <c r="M24" t="n">
-        <v>9.210817540095803</v>
+        <v>9.171393599057097</v>
       </c>
       <c r="N24" t="n">
-        <v>133.0826140836574</v>
+        <v>132.0954719395162</v>
       </c>
       <c r="O24" t="n">
-        <v>11.53614381340911</v>
+        <v>11.49327942492986</v>
       </c>
       <c r="P24" t="n">
-        <v>391.866316179678</v>
+        <v>391.8152747842357</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
@@ -33978,7 +34251,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y367"/>
+  <dimension ref="A1:Y370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75411,6 +75684,387 @@
         </is>
       </c>
     </row>
+    <row r="368">
+      <c r="A368" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-05 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>-36.78506332959805,175.06690190859246</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>-36.7852331164158,175.06777493503088</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>-36.78543662396169,175.06863682496353</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>-36.78562818569407,175.06950092252617</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>-36.78570776116945,175.07040022424468</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>-36.7859772331546,175.07124080835297</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>-36.786134280750616,175.0721161712766</t>
+        </is>
+      </c>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>-36.78629086115407,175.07296751549893</t>
+        </is>
+      </c>
+      <c r="J368" t="inlineStr">
+        <is>
+          <t>-36.78634769312109,175.07383340356304</t>
+        </is>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>-36.78657416280498,175.0747104211172</t>
+        </is>
+      </c>
+      <c r="L368" t="inlineStr">
+        <is>
+          <t>-36.78668522327781,175.07560738527124</t>
+        </is>
+      </c>
+      <c r="M368" t="inlineStr">
+        <is>
+          <t>-36.78672875812158,175.0765114946316</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>-36.78685556288776,175.07738660267287</t>
+        </is>
+      </c>
+      <c r="O368" t="inlineStr">
+        <is>
+          <t>-36.78694587201373,175.0782562662649</t>
+        </is>
+      </c>
+      <c r="P368" t="inlineStr">
+        <is>
+          <t>-36.78697783595685,175.07914266147412</t>
+        </is>
+      </c>
+      <c r="Q368" t="inlineStr">
+        <is>
+          <t>-36.787018251426716,175.08003958293264</t>
+        </is>
+      </c>
+      <c r="R368" t="inlineStr">
+        <is>
+          <t>-36.787027829314695,175.08093621219234</t>
+        </is>
+      </c>
+      <c r="S368" t="inlineStr">
+        <is>
+          <t>-36.78720140487072,175.08181886650502</t>
+        </is>
+      </c>
+      <c r="T368" t="inlineStr">
+        <is>
+          <t>-36.787263352695085,175.0827133329947</t>
+        </is>
+      </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>-36.787306931425675,175.083609903483</t>
+        </is>
+      </c>
+      <c r="V368" t="inlineStr">
+        <is>
+          <t>-36.78733941988753,175.08450916680866</t>
+        </is>
+      </c>
+      <c r="W368" t="inlineStr">
+        <is>
+          <t>-36.78740593818015,175.085417132741</t>
+        </is>
+      </c>
+      <c r="X368" t="inlineStr">
+        <is>
+          <t>-36.78752621092413,175.086315325644</t>
+        </is>
+      </c>
+      <c r="Y368" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:06:09+00:00</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>-36.78505270468939,175.06690541753386</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>-36.785243402655944,175.06777153801124</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>-36.78540863652238,175.06864606758356</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>-36.78571127198519,175.06947406480688</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>-36.785885222261214,175.07034428102355</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>-36.78605712556063,175.07121587948492</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>-36.78624984283674,175.0720806854806</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>-36.78638268381554,175.07294658312125</t>
+        </is>
+      </c>
+      <c r="J369" t="inlineStr">
+        <is>
+          <t>-36.786575502622,175.07380162923818</t>
+        </is>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>-36.78665488916487,175.07469743893645</t>
+        </is>
+      </c>
+      <c r="L369" t="inlineStr">
+        <is>
+          <t>-36.786748983638056,175.0755943065476</t>
+        </is>
+      </c>
+      <c r="M369" t="inlineStr">
+        <is>
+          <t>-36.786876612078956,175.07647982518324</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr">
+        <is>
+          <t>-36.786931518089,175.07737245214315</t>
+        </is>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>-36.787014282086034,175.07824773410414</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>-36.787113160634064,175.07913033371614</t>
+        </is>
+      </c>
+      <c r="Q369" t="inlineStr">
+        <is>
+          <t>-36.78719166475255,175.0800237867061</t>
+        </is>
+      </c>
+      <c r="R369" t="inlineStr">
+        <is>
+          <t>-36.787202120361044,175.08092155956328</t>
+        </is>
+      </c>
+      <c r="S369" t="inlineStr">
+        <is>
+          <t>-36.787224774014064,175.08181712197913</t>
+        </is>
+      </c>
+      <c r="T369" t="inlineStr">
+        <is>
+          <t>-36.78722745967153,175.0827159258923</t>
+        </is>
+      </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>-36.78730324317019,175.0836101698931</t>
+        </is>
+      </c>
+      <c r="V369" t="inlineStr">
+        <is>
+          <t>-36.787333394355755,175.08450963544885</t>
+        </is>
+      </c>
+      <c r="W369" t="inlineStr">
+        <is>
+          <t>-36.787356959841624,175.08542292681844</t>
+        </is>
+      </c>
+      <c r="X369" t="inlineStr">
+        <is>
+          <t>-36.78741138214779,175.0863329453432</t>
+        </is>
+      </c>
+      <c r="Y369" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>-36.785027274579754,175.0669138159801</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>-36.785311061535346,175.06774919371796</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>-36.78549062744603,175.06861899074187</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>-36.78569596038689,175.0694790142992</t>
+        </is>
+      </c>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>-36.78583224098143,175.07036098298346</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>-36.78606734153344,175.07121269178614</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>-36.78616454909505,175.07210687674763</t>
+        </is>
+      </c>
+      <c r="I370" t="inlineStr">
+        <is>
+          <t>-36.786384190558024,175.07294623963594</t>
+        </is>
+      </c>
+      <c r="J370" t="inlineStr">
+        <is>
+          <t>-36.78645138942826,175.07381894026943</t>
+        </is>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>-36.78658470787202,175.0747087252912</t>
+        </is>
+      </c>
+      <c r="L370" t="inlineStr">
+        <is>
+          <t>-36.78671666917913,175.07560093499248</t>
+        </is>
+      </c>
+      <c r="M370" t="inlineStr">
+        <is>
+          <t>-36.786779996400824,175.0765005197059</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr">
+        <is>
+          <t>-36.78687285108779,175.07738338186613</t>
+        </is>
+      </c>
+      <c r="O370" t="inlineStr">
+        <is>
+          <t>-36.78697823903363,175.07825222942498</t>
+        </is>
+      </c>
+      <c r="P370" t="inlineStr">
+        <is>
+          <t>-36.78705866615462,175.07913529803815</t>
+        </is>
+      </c>
+      <c r="Q370" t="inlineStr">
+        <is>
+          <t>-36.787108667204016,175.08003134696258</t>
+        </is>
+      </c>
+      <c r="R370" t="inlineStr">
+        <is>
+          <t>-36.78714408328205,175.08092643873943</t>
+        </is>
+      </c>
+      <c r="S370" t="inlineStr">
+        <is>
+          <t>-36.78718093545424,175.08182039456332</t>
+        </is>
+      </c>
+      <c r="T370" t="inlineStr">
+        <is>
+          <t>-36.787245810991855,175.08271460020052</t>
+        </is>
+      </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>-36.78727922453077,175.0836119048071</t>
+        </is>
+      </c>
+      <c r="V370" t="inlineStr">
+        <is>
+          <t>-36.78729697136506,175.0845124682729</t>
+        </is>
+      </c>
+      <c r="W370" t="inlineStr">
+        <is>
+          <t>-36.78738019315611,175.08542017834654</t>
+        </is>
+      </c>
+      <c r="X370" t="inlineStr">
+        <is>
+          <t>-36.787465845329464,175.08632458834188</t>
+        </is>
+      </c>
+      <c r="Y370" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -32362,7 +32362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32453,35 +32453,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -32540,27 +32545,28 @@
       <c r="P2" t="n">
         <v>382.0358454313513</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.06579065040998 -36.788428024573186, 175.06843500479746 -36.78042091745365)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.06579065041</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.78842802457319</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.0684350047975</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.78042091745365</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.0671128276037</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.78442447101342</v>
       </c>
     </row>
@@ -32617,27 +32623,28 @@
       <c r="P3" t="n">
         <v>380.8611223109003</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.06665563033232 -36.78862224890312, 175.0692999288275 -36.78061513848842)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.0666556303323</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.78862224890312</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.0692999288275</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.78061513848842</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.0679777795799</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.78461869369577</v>
       </c>
     </row>
@@ -32694,27 +32701,28 @@
       <c r="P4" t="n">
         <v>382.1581481738674</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.06752061025497 -36.788816472740386, 175.07016485285678 -36.780809359031636)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.067520610255</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.78881647274039</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.0701648528568</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.78080935903164</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.0688427315559</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.78481291588601</v>
       </c>
     </row>
@@ -32771,27 +32779,28 @@
       <c r="P5" t="n">
         <v>375.5707890922665</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.06840607129297 -36.789015047195946, 175.07099790277726 -36.7809968967563)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.068406071293</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.78901504719595</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.0709979027773</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.7809968967563</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.0697019870351</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.78500597197612</v>
       </c>
     </row>
@@ -32848,27 +32857,28 @@
       <c r="P6" t="n">
         <v>376.6542104809607</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.06929710886277 -36.7892068798377, 175.07182864133645 -36.78117632194422)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.0692971088628</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.7892068798377</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.0718286413365</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.78117632194422</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.0705628750996</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.78519160089096</v>
       </c>
     </row>
@@ -32925,27 +32935,28 @@
       <c r="P7" t="n">
         <v>377.8240865580356</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.07017442074223 -36.789394666271015, 175.07268168886017 -36.78135920845034)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.0701744207422</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.78939466627101</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.0726816888602</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.78135920845034</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.0714280548012</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.78537693736068</v>
       </c>
     </row>
@@ -33002,27 +33013,28 @@
       <c r="P8" t="n">
         <v>381.1267500135306</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.07105767964904 -36.78958119369445, 175.07352739859778 -36.78153824755125)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.071057679649</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.78958119369445</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.0735273985978</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.78153824755125</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.0722925391234</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.78555972062285</v>
       </c>
     </row>
@@ -33079,27 +33091,28 @@
       <c r="P9" t="n">
         <v>386.3091877080317</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.07216671905078 -36.7898035186562, 175.07402425825438 -36.781655058097314)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.0721667190508</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.7898035186562</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.0740242582544</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.78165505809731</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.0730954886526</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.78572928837676</v>
       </c>
     </row>
@@ -33156,27 +33169,28 @@
       <c r="P10" t="n">
         <v>382.7800381485151</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.0733330897094 -36.78993461693664, 175.07448130862855 -36.78170222048105)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.0733330897094</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.78993461693664</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.0744813086285</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.78170222048105</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.073907199169</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.78581841870884</v>
       </c>
     </row>
@@ -33233,27 +33247,28 @@
       <c r="P11" t="n">
         <v>377.1112235017327</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr">
         <is>
           <t>LINESTRING (175.07415779559986 -36.79001039359068, 175.07547899054856 -36.781794750795775)</t>
         </is>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>175.0741577955999</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>-36.79001039359068</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>175.0754789905486</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>-36.78179475079578</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>175.0748183930742</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>-36.78590257219322</v>
       </c>
     </row>
@@ -33310,27 +33325,28 @@
       <c r="P12" t="n">
         <v>378.1371262987599</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr">
         <is>
           <t>LINESTRING (175.07490369797438 -36.790115649037105, 175.07658028819932 -36.78194193738602)</t>
         </is>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>175.0749036979744</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>-36.79011564903711</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>175.0765802881993</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>-36.78194193738602</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>175.0757419930869</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>-36.78602879321156</v>
       </c>
     </row>
@@ -33387,27 +33403,28 @@
       <c r="P13" t="n">
         <v>381.827332669987</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr">
         <is>
           <t>LINESTRING (175.07575856931484 -36.79024377287137, 175.07750721552364 -36.782079811310595)</t>
         </is>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>175.0757585693148</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>-36.79024377287137</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>175.0775072155236</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>-36.7820798113106</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>175.0766328924192</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>-36.78616179209098</v>
       </c>
     </row>
@@ -33464,27 +33481,28 @@
       <c r="P14" t="n">
         <v>387.3165706761595</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr">
         <is>
           <t>LINESTRING (175.07672864086882 -36.79038713632437, 175.07825492200774 -36.78219446792616)</t>
         </is>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>175.0767286408688</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>-36.79038713632437</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>175.0782549220077</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>-36.78219446792616</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>175.0774917814383</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>-36.78629080212527</v>
       </c>
     </row>
@@ -33541,27 +33559,28 @@
       <c r="P15" t="n">
         <v>389.5788181650475</v>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
         <is>
           <t>LINESTRING (175.0778119961178 -36.79050785689815, 175.07884000751338 -36.7822652533793)</t>
         </is>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>175.0778119961178</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>-36.79050785689815</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>175.0788400075134</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>-36.7822652533793</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>175.0783260018156</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>-36.78638655513873</v>
       </c>
     </row>
@@ -33612,27 +33631,28 @@
       <c r="P16" t="n">
         <v>388.0358262347997</v>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr">
         <is>
           <t>LINESTRING (175.0788146672156 -36.790578185229045, 175.07956728522515 -36.78231642641688)</t>
         </is>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>175.0788146672156</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>-36.79057818522904</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>175.0795672852252</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>-36.78231642641688</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>175.0791909762204</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>-36.78644730582296</v>
       </c>
     </row>
@@ -33689,27 +33709,28 @@
       <c r="P17" t="n">
         <v>388.2208967928148</v>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr">
         <is>
           <t>LINESTRING (175.07970959046943 -36.790640837365046, 175.0804621456757 -36.782379079598655)</t>
         </is>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>175.0797095904694</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>-36.79064083736505</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>175.0804621456757</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>-36.78237907959866</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>175.0800858680726</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>-36.78650995848185</v>
       </c>
     </row>
@@ -33766,27 +33787,28 @@
       <c r="P18" t="n">
         <v>388.2303051239288</v>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr">
         <is>
           <t>LINESTRING (175.08062707943563 -36.79070480140889, 175.08132191111184 -36.78243978857827)</t>
         </is>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>175.0806270794356</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>-36.79070480140889</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>175.0813219111118</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>-36.78243978857827</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>175.0809744952737</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>-36.78657229499358</v>
       </c>
     </row>
@@ -33837,27 +33859,28 @@
       <c r="P19" t="n">
         <v>387.8346404588806</v>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr">
         <is>
           <t>LINESTRING (175.0815531301122 -36.79076101792391, 175.08217040966323 -36.78249204114308)</t>
         </is>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>175.0815531301122</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>-36.79076101792391</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>175.0821704096632</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>-36.78249204114308</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>175.0818617698877</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>-36.78662652953349</v>
       </c>
     </row>
@@ -33914,27 +33937,28 @@
       <c r="P20" t="n">
         <v>387.910744857441</v>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr">
         <is>
           <t>LINESTRING (175.08245688161998 -36.790813252782236, 175.08305429093673 -36.78254333936692)</t>
         </is>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>175.08245688162</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>-36.79081325278224</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>175.0830542909367</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>-36.78254333936692</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>175.0827555862784</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>-36.78667829607458</v>
       </c>
     </row>
@@ -33991,27 +34015,28 @@
       <c r="P21" t="n">
         <v>390.4016362273488</v>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
         <is>
           <t>LINESTRING (175.08335288131428 -36.790865107535026, 175.0839502276395 -36.78259519552579)</t>
         </is>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>175.0833528813143</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>-36.79086510753503</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>175.0839502276395</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>-36.78259519552579</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>175.0836515544769</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>-36.78673015153041</v>
       </c>
     </row>
@@ -34062,27 +34087,28 @@
       <c r="P22" t="n">
         <v>390.1664209558807</v>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr">
         <is>
           <t>LINESTRING (175.08423098144848 -36.79091606670379, 175.08487400142928 -36.78264836785435)</t>
         </is>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>175.0842309814485</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>-36.79091606670379</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>175.0848740014293</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>-36.78264836785435</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>175.0845524914389</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>-36.78678221727907</v>
       </c>
     </row>
@@ -34139,27 +34165,28 @@
       <c r="P23" t="n">
         <v>389.5681898751698</v>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr">
         <is>
           <t>LINESTRING (175.08499598519694 -36.790965836970074, 175.08597154604738 -36.78271915962405)</t>
         </is>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>175.0849959851969</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>-36.79096583697007</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>175.0859715460474</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>-36.78271915962405</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>175.0854837656221</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>-36.78684249829706</v>
       </c>
     </row>
@@ -34216,27 +34243,28 @@
       <c r="P24" t="n">
         <v>391.8152747842357</v>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
         <is>
           <t>LINESTRING (175.08577399226172 -36.791053974821686, 175.08703552937925 -36.78283235592655)</t>
         </is>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>175.0857739922617</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>-36.79105397482169</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>175.0870355293792</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>-36.78283235592655</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>175.0864047608205</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>-36.78694316537412</v>
       </c>
     </row>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y370"/>
+  <dimension ref="A1:Y373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27860,6 +27860,249 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>391.09</v>
+      </c>
+      <c r="C371" t="n">
+        <v>388.9333333333333</v>
+      </c>
+      <c r="D371" t="n">
+        <v>385.7563636363636</v>
+      </c>
+      <c r="E371" t="n">
+        <v>378.6842857142857</v>
+      </c>
+      <c r="F371" t="n">
+        <v>379.5742857142857</v>
+      </c>
+      <c r="G371" t="n">
+        <v>382.8933333333333</v>
+      </c>
+      <c r="H371" t="n">
+        <v>387.4</v>
+      </c>
+      <c r="I371" t="n">
+        <v>391.4500000000001</v>
+      </c>
+      <c r="J371" t="n">
+        <v>390.03</v>
+      </c>
+      <c r="K371" t="n">
+        <v>382.64</v>
+      </c>
+      <c r="L371" t="n">
+        <v>387.6307692307692</v>
+      </c>
+      <c r="M371" t="n">
+        <v>386.88</v>
+      </c>
+      <c r="N371" t="n">
+        <v>394.43</v>
+      </c>
+      <c r="O371" t="n">
+        <v>394.83</v>
+      </c>
+      <c r="P371" t="n">
+        <v>396.9028571428572</v>
+      </c>
+      <c r="Q371" t="n">
+        <v>395.5163636363636</v>
+      </c>
+      <c r="R371" t="n">
+        <v>392.4363636363637</v>
+      </c>
+      <c r="S371" t="n">
+        <v>392.3128571428572</v>
+      </c>
+      <c r="T371" t="n">
+        <v>392.14</v>
+      </c>
+      <c r="U371" t="n">
+        <v>393.9500000000001</v>
+      </c>
+      <c r="V371" t="n">
+        <v>396.88</v>
+      </c>
+      <c r="W371" t="n">
+        <v>400.33</v>
+      </c>
+      <c r="X371" t="n">
+        <v>404.25</v>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>397.7</v>
+      </c>
+      <c r="C372" t="n">
+        <v>388.3155555555555</v>
+      </c>
+      <c r="D372" t="n">
+        <v>384.4936363636364</v>
+      </c>
+      <c r="E372" t="n">
+        <v>396.5214285714285</v>
+      </c>
+      <c r="F372" t="n">
+        <v>396.8214285714286</v>
+      </c>
+      <c r="G372" t="n">
+        <v>390.8955555555555</v>
+      </c>
+      <c r="H372" t="n">
+        <v>396.92</v>
+      </c>
+      <c r="I372" t="n">
+        <v>396.8</v>
+      </c>
+      <c r="J372" t="n">
+        <v>393.5</v>
+      </c>
+      <c r="K372" t="n">
+        <v>392.2966666666667</v>
+      </c>
+      <c r="L372" t="n">
+        <v>382.2838461538461</v>
+      </c>
+      <c r="M372" t="n">
+        <v>394.12</v>
+      </c>
+      <c r="N372" t="n">
+        <v>396.9966666666666</v>
+      </c>
+      <c r="O372" t="n">
+        <v>400.63</v>
+      </c>
+      <c r="P372" t="n">
+        <v>396.5876190476191</v>
+      </c>
+      <c r="Q372" t="n">
+        <v>398.7836363636364</v>
+      </c>
+      <c r="R372" t="n">
+        <v>403.2736363636364</v>
+      </c>
+      <c r="S372" t="n">
+        <v>406.057619047619</v>
+      </c>
+      <c r="T372" t="n">
+        <v>411.11</v>
+      </c>
+      <c r="U372" t="n">
+        <v>404.67</v>
+      </c>
+      <c r="V372" t="n">
+        <v>410.79</v>
+      </c>
+      <c r="W372" t="n">
+        <v>402.13</v>
+      </c>
+      <c r="X372" t="n">
+        <v>408.77</v>
+      </c>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>382.56</v>
+      </c>
+      <c r="C373" t="n">
+        <v>373.27</v>
+      </c>
+      <c r="D373" t="n">
+        <v>375.2063636363636</v>
+      </c>
+      <c r="E373" t="n">
+        <v>370.4614285714285</v>
+      </c>
+      <c r="F373" t="n">
+        <v>377.0314285714285</v>
+      </c>
+      <c r="G373" t="n">
+        <v>374.97</v>
+      </c>
+      <c r="H373" t="n">
+        <v>383.5</v>
+      </c>
+      <c r="I373" t="n">
+        <v>381.9</v>
+      </c>
+      <c r="J373" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="K373" t="n">
+        <v>372.8</v>
+      </c>
+      <c r="L373" t="n">
+        <v>375.6446153846153</v>
+      </c>
+      <c r="M373" t="n">
+        <v>383.52</v>
+      </c>
+      <c r="N373" t="n">
+        <v>388.72</v>
+      </c>
+      <c r="O373" t="n">
+        <v>384.27</v>
+      </c>
+      <c r="P373" t="n">
+        <v>387.1042857142857</v>
+      </c>
+      <c r="Q373" t="n">
+        <v>388.6863636363637</v>
+      </c>
+      <c r="R373" t="n">
+        <v>392.1963636363636</v>
+      </c>
+      <c r="S373" t="n">
+        <v>392.2142857142857</v>
+      </c>
+      <c r="T373" t="n">
+        <v>387.74</v>
+      </c>
+      <c r="U373" t="n">
+        <v>392.5</v>
+      </c>
+      <c r="V373" t="n">
+        <v>388.11</v>
+      </c>
+      <c r="W373" t="n">
+        <v>391.05</v>
+      </c>
+      <c r="X373" t="n">
+        <v>395.06</v>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -27871,7 +28114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B451"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32349,6 +32592,46 @@
       </c>
       <c r="B447" t="n">
         <v>0.43</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-0.57</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-03-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -32522,28 +32805,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1165204131063327</v>
+        <v>0.1262290575851698</v>
       </c>
       <c r="J2" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K2" t="n">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01015970626387919</v>
+        <v>0.01201989985864338</v>
       </c>
       <c r="M2" t="n">
-        <v>6.381716814209112</v>
+        <v>6.38616830710839</v>
       </c>
       <c r="N2" t="n">
-        <v>71.49878276636576</v>
+        <v>71.45645612131936</v>
       </c>
       <c r="O2" t="n">
-        <v>8.455695285803868</v>
+        <v>8.45319206698389</v>
       </c>
       <c r="P2" t="n">
-        <v>382.0358454313513</v>
+        <v>381.9383316096424</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32600,28 +32883,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03185058944780361</v>
+        <v>0.03502423876981876</v>
       </c>
       <c r="J3" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K3" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006906730018558793</v>
+        <v>0.0008449566824676458</v>
       </c>
       <c r="M3" t="n">
-        <v>6.991492943410811</v>
+        <v>6.995545620153834</v>
       </c>
       <c r="N3" t="n">
-        <v>78.96183515987808</v>
+        <v>78.74400587610361</v>
       </c>
       <c r="O3" t="n">
-        <v>8.886047217963569</v>
+        <v>8.873781937601555</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8611223109003</v>
+        <v>380.8292958795728</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32678,28 +32961,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02387021365043976</v>
+        <v>0.0221529952594527</v>
       </c>
       <c r="J4" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K4" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00044613004611882</v>
+        <v>0.0003901917956320444</v>
       </c>
       <c r="M4" t="n">
-        <v>6.246179772753557</v>
+        <v>6.225750503183481</v>
       </c>
       <c r="N4" t="n">
-        <v>68.70312452877702</v>
+        <v>68.27750291038024</v>
       </c>
       <c r="O4" t="n">
-        <v>8.288734796624695</v>
+        <v>8.263020205129614</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1581481738674</v>
+        <v>382.1757222328898</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -32756,28 +33039,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1018680835028059</v>
+        <v>0.108288128007304</v>
       </c>
       <c r="J5" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K5" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006022477840745832</v>
+        <v>0.00683171070908084</v>
       </c>
       <c r="M5" t="n">
-        <v>7.614187630242554</v>
+        <v>7.623473271818156</v>
       </c>
       <c r="N5" t="n">
-        <v>92.45257522337455</v>
+        <v>92.81942347967619</v>
       </c>
       <c r="O5" t="n">
-        <v>9.615226218003118</v>
+        <v>9.634283755405805</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5707890922665</v>
+        <v>375.5057507845979</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -32834,28 +33117,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1175651116614635</v>
+        <v>0.1257495288525122</v>
       </c>
       <c r="J6" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K6" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006092416895792097</v>
+        <v>0.007034066884256673</v>
       </c>
       <c r="M6" t="n">
-        <v>8.655457039514037</v>
+        <v>8.635633232212125</v>
       </c>
       <c r="N6" t="n">
-        <v>123.8593673660851</v>
+        <v>123.634843831854</v>
       </c>
       <c r="O6" t="n">
-        <v>11.12921234257326</v>
+        <v>11.11912064112329</v>
       </c>
       <c r="P6" t="n">
-        <v>376.6542104809607</v>
+        <v>376.5718632091254</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -32912,28 +33195,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1050701274757079</v>
+        <v>0.1091843943823298</v>
       </c>
       <c r="J7" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K7" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007006733735117954</v>
+        <v>0.007657171512158611</v>
       </c>
       <c r="M7" t="n">
-        <v>7.159835217715449</v>
+        <v>7.147653992833614</v>
       </c>
       <c r="N7" t="n">
-        <v>86.38609994785135</v>
+        <v>86.02193131887574</v>
       </c>
       <c r="O7" t="n">
-        <v>9.294412297065982</v>
+        <v>9.274800877586308</v>
       </c>
       <c r="P7" t="n">
-        <v>377.8240865580356</v>
+        <v>377.7829927983347</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -32990,28 +33273,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1456935409827964</v>
+        <v>0.153351202370615</v>
       </c>
       <c r="J8" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K8" t="n">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01420064349660577</v>
+        <v>0.01589767866909275</v>
       </c>
       <c r="M8" t="n">
-        <v>7.099085151657087</v>
+        <v>7.079162474904149</v>
       </c>
       <c r="N8" t="n">
-        <v>81.60319355083361</v>
+        <v>81.30873591231401</v>
       </c>
       <c r="O8" t="n">
-        <v>9.033448596789247</v>
+        <v>9.017135682261525</v>
       </c>
       <c r="P8" t="n">
-        <v>381.1267500135306</v>
+        <v>381.0503368718877</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33068,28 +33351,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08403646584233197</v>
+        <v>0.08681608309580044</v>
       </c>
       <c r="J9" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K9" t="n">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004535859647654017</v>
+        <v>0.004908159181521321</v>
       </c>
       <c r="M9" t="n">
-        <v>6.733727990292724</v>
+        <v>6.724712813178317</v>
       </c>
       <c r="N9" t="n">
-        <v>85.88842692761055</v>
+        <v>85.4515723324603</v>
       </c>
       <c r="O9" t="n">
-        <v>9.267600926216588</v>
+        <v>9.244001965191282</v>
       </c>
       <c r="P9" t="n">
-        <v>386.3091877080317</v>
+        <v>386.2818040913439</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33146,28 +33429,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1100459241068377</v>
+        <v>0.1154430347451389</v>
       </c>
       <c r="J10" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K10" t="n">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006197675890856846</v>
+        <v>0.006921706720958487</v>
       </c>
       <c r="M10" t="n">
-        <v>8.150526678818034</v>
+        <v>8.118720604420668</v>
       </c>
       <c r="N10" t="n">
-        <v>108.1212570913738</v>
+        <v>107.3810524280078</v>
       </c>
       <c r="O10" t="n">
-        <v>10.39813719333294</v>
+        <v>10.36248292775471</v>
       </c>
       <c r="P10" t="n">
-        <v>382.7800381485151</v>
+        <v>382.7265765590928</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33224,28 +33507,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1628193626991966</v>
+        <v>0.1650135733842646</v>
       </c>
       <c r="J11" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K11" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01707647787639199</v>
+        <v>0.01772129262121824</v>
       </c>
       <c r="M11" t="n">
-        <v>6.749196185671188</v>
+        <v>6.751112956736919</v>
       </c>
       <c r="N11" t="n">
-        <v>84.78019666930223</v>
+        <v>84.59455509271353</v>
       </c>
       <c r="O11" t="n">
-        <v>9.207616231647702</v>
+        <v>9.197529836467698</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1112235017327</v>
+        <v>377.0896559791979</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33302,28 +33585,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1766105017919205</v>
+        <v>0.1751770096721765</v>
       </c>
       <c r="J12" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K12" t="n">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02332210131471024</v>
+        <v>0.02328315311996454</v>
       </c>
       <c r="M12" t="n">
-        <v>6.46814030939642</v>
+        <v>6.446320944349476</v>
       </c>
       <c r="N12" t="n">
-        <v>72.90557258070068</v>
+        <v>72.45719925195102</v>
       </c>
       <c r="O12" t="n">
-        <v>8.538476010430706</v>
+        <v>8.51217946544544</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1371262987599</v>
+        <v>378.1515845030379</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33380,28 +33663,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2266355311940486</v>
+        <v>0.2275014594018226</v>
       </c>
       <c r="J13" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K13" t="n">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0279098540724656</v>
+        <v>0.02854035332944471</v>
       </c>
       <c r="M13" t="n">
-        <v>7.771554531621572</v>
+        <v>7.734552087163284</v>
       </c>
       <c r="N13" t="n">
-        <v>100.5251014839484</v>
+        <v>99.77828019038328</v>
       </c>
       <c r="O13" t="n">
-        <v>10.02622069794737</v>
+        <v>9.988907857738166</v>
       </c>
       <c r="P13" t="n">
-        <v>381.827332669987</v>
+        <v>381.8187997617335</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33458,28 +33741,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2326154550896406</v>
+        <v>0.2327526602279535</v>
       </c>
       <c r="J14" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K14" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03569552118172858</v>
+        <v>0.03629860093808124</v>
       </c>
       <c r="M14" t="n">
-        <v>7.098169800444888</v>
+        <v>7.061527744514883</v>
       </c>
       <c r="N14" t="n">
-        <v>83.35150729982249</v>
+        <v>82.68910789557329</v>
       </c>
       <c r="O14" t="n">
-        <v>9.129704666626543</v>
+        <v>9.093355150634626</v>
       </c>
       <c r="P14" t="n">
-        <v>387.3165706761595</v>
+        <v>387.3153425830324</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33536,28 +33819,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2404704373959643</v>
+        <v>0.2361579507117833</v>
       </c>
       <c r="J15" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K15" t="n">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L15" t="n">
-        <v>0.04047661892490262</v>
+        <v>0.03953670371976403</v>
       </c>
       <c r="M15" t="n">
-        <v>6.779640312937506</v>
+        <v>6.769136770428129</v>
       </c>
       <c r="N15" t="n">
-        <v>77.96022652703451</v>
+        <v>77.7170062131395</v>
       </c>
       <c r="O15" t="n">
-        <v>8.829508849705883</v>
+        <v>8.815724939739187</v>
       </c>
       <c r="P15" t="n">
-        <v>389.5788181650475</v>
+        <v>389.6211058600135</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33608,28 +33891,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2314488475292932</v>
+        <v>0.2306537765028834</v>
       </c>
       <c r="J16" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K16" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03440387763881603</v>
+        <v>0.03470442039611121</v>
       </c>
       <c r="M16" t="n">
-        <v>7.320326568345447</v>
+        <v>7.29053855880135</v>
       </c>
       <c r="N16" t="n">
-        <v>85.79457899424273</v>
+        <v>85.18679173726855</v>
       </c>
       <c r="O16" t="n">
-        <v>9.262536315407498</v>
+        <v>9.229669102263014</v>
       </c>
       <c r="P16" t="n">
-        <v>388.0358262347997</v>
+        <v>388.0437308887965</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -33686,28 +33969,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1987974650023741</v>
+        <v>0.2004470227606989</v>
       </c>
       <c r="J17" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K17" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02766663746022213</v>
+        <v>0.02853624064251914</v>
       </c>
       <c r="M17" t="n">
-        <v>7.066075202794639</v>
+        <v>7.038295240079292</v>
       </c>
       <c r="N17" t="n">
-        <v>78.87080480613078</v>
+        <v>78.31575637091878</v>
       </c>
       <c r="O17" t="n">
-        <v>8.880923646002749</v>
+        <v>8.849618995805344</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2208967928148</v>
+        <v>388.2048717761494</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -33764,28 +34047,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1770857726614639</v>
+        <v>0.1824179766610607</v>
       </c>
       <c r="J18" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K18" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01906357301404094</v>
+        <v>0.0204779324388682</v>
       </c>
       <c r="M18" t="n">
-        <v>7.386110848772805</v>
+        <v>7.351338678984392</v>
       </c>
       <c r="N18" t="n">
-        <v>91.7932679612809</v>
+        <v>91.27758703216026</v>
       </c>
       <c r="O18" t="n">
-        <v>9.580880333313891</v>
+        <v>9.553930449409826</v>
       </c>
       <c r="P18" t="n">
-        <v>388.2303051239288</v>
+        <v>388.1779187940578</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -33836,28 +34119,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2277222742031906</v>
+        <v>0.2331445008834173</v>
       </c>
       <c r="J19" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K19" t="n">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02532319558072638</v>
+        <v>0.02685719701469902</v>
       </c>
       <c r="M19" t="n">
-        <v>8.001731864604945</v>
+        <v>7.974677906303009</v>
       </c>
       <c r="N19" t="n">
-        <v>111.2980016334083</v>
+        <v>110.7433548687224</v>
       </c>
       <c r="O19" t="n">
-        <v>10.54978680511641</v>
+        <v>10.52346686547368</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8346404588806</v>
+        <v>387.7807091479727</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -33914,28 +34197,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2830818037442732</v>
+        <v>0.286244618732961</v>
       </c>
       <c r="J20" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K20" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0406752415272752</v>
+        <v>0.04190295503807484</v>
       </c>
       <c r="M20" t="n">
-        <v>7.898555744754176</v>
+        <v>7.908624491898818</v>
       </c>
       <c r="N20" t="n">
-        <v>106.9231979265739</v>
+        <v>106.9151884636273</v>
       </c>
       <c r="O20" t="n">
-        <v>10.34036739804606</v>
+        <v>10.3399800997694</v>
       </c>
       <c r="P20" t="n">
-        <v>387.910744857441</v>
+        <v>387.8798044010704</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -33992,28 +34275,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1599207563293375</v>
+        <v>0.1646245737320823</v>
       </c>
       <c r="J21" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K21" t="n">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01545446703195963</v>
+        <v>0.01662445807043322</v>
       </c>
       <c r="M21" t="n">
-        <v>7.348112516174145</v>
+        <v>7.318251214392173</v>
       </c>
       <c r="N21" t="n">
-        <v>93.18600930328071</v>
+        <v>92.60332989445874</v>
       </c>
       <c r="O21" t="n">
-        <v>9.653290076615367</v>
+        <v>9.623062396891061</v>
       </c>
       <c r="P21" t="n">
-        <v>390.4016362273488</v>
+        <v>390.3564045400984</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34064,28 +34347,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.2135105043916916</v>
+        <v>0.2189876029741788</v>
       </c>
       <c r="J22" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K22" t="n">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0207282310097382</v>
+        <v>0.02204766914172862</v>
       </c>
       <c r="M22" t="n">
-        <v>8.217569251601972</v>
+        <v>8.212426999547683</v>
       </c>
       <c r="N22" t="n">
-        <v>122.2011351264226</v>
+        <v>121.9343602756783</v>
       </c>
       <c r="O22" t="n">
-        <v>11.05446222692097</v>
+        <v>11.04238924670193</v>
       </c>
       <c r="P22" t="n">
-        <v>390.1664209558807</v>
+        <v>390.1138208626152</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34142,28 +34425,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2495214558066759</v>
+        <v>0.2529280464621204</v>
       </c>
       <c r="J23" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K23" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02648712604002079</v>
+        <v>0.02767030896132427</v>
       </c>
       <c r="M23" t="n">
-        <v>8.949222560645696</v>
+        <v>8.911199548692993</v>
       </c>
       <c r="N23" t="n">
-        <v>129.5186716964694</v>
+        <v>128.4939014328864</v>
       </c>
       <c r="O23" t="n">
-        <v>11.38062703441552</v>
+        <v>11.3355150492991</v>
       </c>
       <c r="P23" t="n">
-        <v>389.5681898751698</v>
+        <v>389.5353485619667</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34220,28 +34503,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2525079153955398</v>
+        <v>0.2605934300794094</v>
       </c>
       <c r="J24" t="n">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="K24" t="n">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0264981471552842</v>
+        <v>0.0286124011250467</v>
       </c>
       <c r="M24" t="n">
-        <v>9.171393599057097</v>
+        <v>9.14508794794969</v>
       </c>
       <c r="N24" t="n">
-        <v>132.0954719395162</v>
+        <v>131.2885317006946</v>
       </c>
       <c r="O24" t="n">
-        <v>11.49327942492986</v>
+        <v>11.4581207752709</v>
       </c>
       <c r="P24" t="n">
-        <v>391.8152747842357</v>
+        <v>391.7367364805528</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34279,7 +34562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y370"/>
+  <dimension ref="A1:Y373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76093,6 +76376,387 @@
         </is>
       </c>
     </row>
+    <row r="371">
+      <c r="A371" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:55+00:00</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>-36.78502204921468,175.06691554168756</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>-36.785235051738496,175.06777429589272</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>-36.785456939596145,175.0686301158895</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>-36.78571254276064,175.06947365402715</t>
+        </is>
+      </c>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>-36.78589147370272,175.070342310301</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>-36.786048220572845,175.0712186581152</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>-36.78619219301599,175.0720983880967</t>
+        </is>
+      </c>
+      <c r="I371" t="inlineStr">
+        <is>
+          <t>-36.786334024895936,175.0729576756706</t>
+        </is>
+      </c>
+      <c r="J371" t="inlineStr">
+        <is>
+          <t>-36.78644198691346,175.0738202517093</t>
+        </is>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>-36.786590933631906,175.07470772408303</t>
+        </is>
+      </c>
+      <c r="L371" t="inlineStr">
+        <is>
+          <t>-36.78666932251201,175.07561064688278</t>
+        </is>
+      </c>
+      <c r="M371" t="inlineStr">
+        <is>
+          <t>-36.78680823517475,175.07649447112777</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>-36.78687219758195,175.07738350361487</t>
+        </is>
+      </c>
+      <c r="O371" t="inlineStr">
+        <is>
+          <t>-36.78696783855081,175.0782535265816</t>
+        </is>
+      </c>
+      <c r="P371" t="inlineStr">
+        <is>
+          <t>-36.7870112841159,175.07913961442895</t>
+        </is>
+      </c>
+      <c r="Q371" t="inlineStr">
+        <is>
+          <t>-36.787086396181365,175.08003337563062</t>
+        </is>
+      </c>
+      <c r="R371" t="inlineStr">
+        <is>
+          <t>-36.78717664485409,175.08092370128932</t>
+        </is>
+      </c>
+      <c r="S371" t="inlineStr">
+        <is>
+          <t>-36.78723227389857,175.08181656210635</t>
+        </is>
+      </c>
+      <c r="T371" t="inlineStr">
+        <is>
+          <t>-36.78728566214323,175.08271172136833</t>
+        </is>
+      </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>-36.78732123466033,175.08360887033155</t>
+        </is>
+      </c>
+      <c r="V371" t="inlineStr">
+        <is>
+          <t>-36.78734679441896,175.08450859324893</t>
+        </is>
+      </c>
+      <c r="W371" t="inlineStr">
+        <is>
+          <t>-36.78737472121718,175.08542082567016</t>
+        </is>
+      </c>
+      <c r="X371" t="inlineStr">
+        <is>
+          <t>-36.78743874788447,175.08632874626002</t>
+        </is>
+      </c>
+      <c r="Y371" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>-36.78496448310816,175.06693455321724</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>-36.785240431935605,175.0677725190885</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>-36.78546793664054,175.06862648420307</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>-36.78555698488702,175.06952393820757</t>
+        </is>
+      </c>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>-36.78574082768036,175.0703898003045</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>-36.78597828194274,175.0712404810994</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>-36.7861089113285,175.07212396148356</t>
+        </is>
+      </c>
+      <c r="I372" t="inlineStr">
+        <is>
+          <t>-36.78628660682216,175.07296848533775</t>
+        </is>
+      </c>
+      <c r="J372" t="inlineStr">
+        <is>
+          <t>-36.786410913840584,175.07382458570393</t>
+        </is>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>-36.78650463685391,175.07472160206163</t>
+        </is>
+      </c>
+      <c r="L372" t="inlineStr">
+        <is>
+          <t>-36.78671686067223,175.0756008957128</t>
+        </is>
+      </c>
+      <c r="M372" t="inlineStr">
+        <is>
+          <t>-36.786743943123,175.07650824209864</t>
+        </is>
+      </c>
+      <c r="N372" t="inlineStr">
+        <is>
+          <t>-36.78684932487741,175.0773877648193</t>
+        </is>
+      </c>
+      <c r="O372" t="inlineStr">
+        <is>
+          <t>-36.78691583613636,175.0782600123604</t>
+        </is>
+      </c>
+      <c r="P372" t="inlineStr">
+        <is>
+          <t>-36.78701411710991,175.07913935635005</t>
+        </is>
+      </c>
+      <c r="Q372" t="inlineStr">
+        <is>
+          <t>-36.787057033725134,175.08003605025615</t>
+        </is>
+      </c>
+      <c r="R372" t="inlineStr">
+        <is>
+          <t>-36.787079213503134,175.08093189233426</t>
+        </is>
+      </c>
+      <c r="S372" t="inlineStr">
+        <is>
+          <t>-36.78710864359114,175.08182579120424</t>
+        </is>
+      </c>
+      <c r="T372" t="inlineStr">
+        <is>
+          <t>-36.787115012854656,175.08272404899466</t>
+        </is>
+      </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>-36.78722480027259,175.08361583597664</t>
+        </is>
+      </c>
+      <c r="V372" t="inlineStr">
+        <is>
+          <t>-36.787221697183654,175.08451832277007</t>
+        </is>
+      </c>
+      <c r="W372" t="inlineStr">
+        <is>
+          <t>-36.78735857451213,175.08542273580497</t>
+        </is>
+      </c>
+      <c r="X372" t="inlineStr">
+        <is>
+          <t>-36.78739832529296,175.08633494882642</t>
+        </is>
+      </c>
+      <c r="Y372" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>-36.78509633648586,175.0668910078589</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>-36.78537146295175,175.06772924616428</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>-36.78554881914696,175.06859977336794</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>-36.78578425436096,175.0694504731415</t>
+        </is>
+      </c>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>-36.785913684412776,175.07033530852988</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>-36.786117469718384,175.07119705023388</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>-36.78622631051262,175.0720879115894</t>
+        </is>
+      </c>
+      <c r="I373" t="inlineStr">
+        <is>
+          <t>-36.78641866837113,175.07293837987996</t>
+        </is>
+      </c>
+      <c r="J373" t="inlineStr">
+        <is>
+          <t>-36.78650771496897,175.0738110841145</t>
+        </is>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>-36.78667886876593,175.07469358260153</t>
+        </is>
+      </c>
+      <c r="L373" t="inlineStr">
+        <is>
+          <t>-36.78677588841691,175.07558878774975</t>
+        </is>
+      </c>
+      <c r="M373" t="inlineStr">
+        <is>
+          <t>-36.78683807236951,175.07648808017302</t>
+        </is>
+      </c>
+      <c r="N373" t="inlineStr">
+        <is>
+          <t>-36.78692308192281,175.07737402381053</t>
+        </is>
+      </c>
+      <c r="O373" t="inlineStr">
+        <is>
+          <t>-36.78706251880753,175.07824171797293</t>
+        </is>
+      </c>
+      <c r="P373" t="inlineStr">
+        <is>
+          <t>-36.787099342299406,175.0791315925352</t>
+        </is>
+      </c>
+      <c r="Q373" t="inlineStr">
+        <is>
+          <t>-36.78714777629607,175.08002778451228</t>
+        </is>
+      </c>
+      <c r="R373" t="inlineStr">
+        <is>
+          <t>-36.78717880254864,175.08092351989194</t>
+        </is>
+      </c>
+      <c r="S373" t="inlineStr">
+        <is>
+          <t>-36.787233160521126,175.08181649591924</t>
+        </is>
+      </c>
+      <c r="T373" t="inlineStr">
+        <is>
+          <t>-36.787325243422,175.08270886202965</t>
+        </is>
+      </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>-36.787334278490654,175.08360792814918</t>
+        </is>
+      </c>
+      <c r="V373" t="inlineStr">
+        <is>
+          <t>-36.78742566593136,175.084502458953</t>
+        </is>
+      </c>
+      <c r="W373" t="inlineStr">
+        <is>
+          <t>-36.78745796645137,175.0854109778537</t>
+        </is>
+      </c>
+      <c r="X373" t="inlineStr">
+        <is>
+          <t>-36.787520934524025,175.0863161352729</t>
+        </is>
+      </c>
+      <c r="Y373" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y373"/>
+  <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28103,6 +28103,59 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>404.74</v>
+      </c>
+      <c r="C374" t="n">
+        <v>370.2466666666666</v>
+      </c>
+      <c r="D374" t="n">
+        <v>377.7836363636364</v>
+      </c>
+      <c r="E374" t="n">
+        <v>375.6357142857143</v>
+      </c>
+      <c r="F374" t="n">
+        <v>383.2857142857143</v>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="n">
+        <v>389.6436363636364</v>
+      </c>
+      <c r="R374" t="n">
+        <v>381.0836363636364</v>
+      </c>
+      <c r="S374" t="n">
+        <v>379.4371428571428</v>
+      </c>
+      <c r="T374" t="n">
+        <v>381.3</v>
+      </c>
+      <c r="U374" t="inlineStr"/>
+      <c r="V374" t="inlineStr"/>
+      <c r="W374" t="inlineStr"/>
+      <c r="X374" t="inlineStr"/>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28114,7 +28167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B451"/>
+  <dimension ref="A1:B452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32632,6 +32685,16 @@
       </c>
       <c r="B451" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>0.57</v>
       </c>
     </row>
   </sheetData>
@@ -32805,28 +32868,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1262290575851698</v>
+        <v>0.1379915495059916</v>
       </c>
       <c r="J2" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K2" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01201989985864338</v>
+        <v>0.01418618733885002</v>
       </c>
       <c r="M2" t="n">
-        <v>6.38616830710839</v>
+        <v>6.425300038736435</v>
       </c>
       <c r="N2" t="n">
-        <v>71.45645612131936</v>
+        <v>72.42436849106689</v>
       </c>
       <c r="O2" t="n">
-        <v>8.45319206698389</v>
+        <v>8.510250788964264</v>
       </c>
       <c r="P2" t="n">
-        <v>381.9383316096424</v>
+        <v>381.8190705503496</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32883,28 +32946,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03502423876981876</v>
+        <v>0.02821308188149573</v>
       </c>
       <c r="J3" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K3" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0008449566824676458</v>
+        <v>0.0005489905201244705</v>
       </c>
       <c r="M3" t="n">
-        <v>6.995545620153834</v>
+        <v>7.009427227682988</v>
       </c>
       <c r="N3" t="n">
-        <v>78.74400587610361</v>
+        <v>78.90595890082614</v>
       </c>
       <c r="O3" t="n">
-        <v>8.873781937601555</v>
+        <v>8.882902616871702</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8292958795728</v>
+        <v>380.8988068708932</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -32961,28 +33024,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0221529952594527</v>
+        <v>0.01922127552628327</v>
       </c>
       <c r="J4" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K4" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003901917956320444</v>
+        <v>0.0002952695274238692</v>
       </c>
       <c r="M4" t="n">
-        <v>6.225750503183481</v>
+        <v>6.221205108763462</v>
       </c>
       <c r="N4" t="n">
-        <v>68.27750291038024</v>
+        <v>68.14170654549038</v>
       </c>
       <c r="O4" t="n">
-        <v>8.263020205129614</v>
+        <v>8.254799000913977</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1757222328898</v>
+        <v>382.2055955721096</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33039,28 +33102,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.108288128007304</v>
+        <v>0.1067307850654116</v>
       </c>
       <c r="J5" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K5" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00683171070908084</v>
+        <v>0.006676263986049591</v>
       </c>
       <c r="M5" t="n">
-        <v>7.623473271818156</v>
+        <v>7.608511962634418</v>
       </c>
       <c r="N5" t="n">
-        <v>92.81942347967619</v>
+        <v>92.5530432519981</v>
       </c>
       <c r="O5" t="n">
-        <v>9.634283755405805</v>
+        <v>9.620449222983202</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5057507845979</v>
+        <v>375.5216921051367</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33117,28 +33180,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1257495288525122</v>
+        <v>0.1277324506410439</v>
       </c>
       <c r="J6" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K6" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007034066884256673</v>
+        <v>0.00729652861519936</v>
       </c>
       <c r="M6" t="n">
-        <v>8.635633232212125</v>
+        <v>8.619489670784963</v>
       </c>
       <c r="N6" t="n">
-        <v>123.634843831854</v>
+        <v>123.288944503397</v>
       </c>
       <c r="O6" t="n">
-        <v>11.11912064112329</v>
+        <v>11.10355548927446</v>
       </c>
       <c r="P6" t="n">
-        <v>376.5718632091254</v>
+        <v>376.551738311973</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33198,7 +33261,7 @@
         <v>0.1091843943823298</v>
       </c>
       <c r="J7" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K7" t="n">
         <v>317</v>
@@ -33276,7 +33339,7 @@
         <v>0.153351202370615</v>
       </c>
       <c r="J8" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K8" t="n">
         <v>315</v>
@@ -33354,7 +33417,7 @@
         <v>0.08681608309580044</v>
       </c>
       <c r="J9" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K9" t="n">
         <v>312</v>
@@ -33432,7 +33495,7 @@
         <v>0.1154430347451389</v>
       </c>
       <c r="J10" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K10" t="n">
         <v>317</v>
@@ -33510,7 +33573,7 @@
         <v>0.1650135733842646</v>
       </c>
       <c r="J11" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K11" t="n">
         <v>319</v>
@@ -33588,7 +33651,7 @@
         <v>0.1751770096721765</v>
       </c>
       <c r="J12" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K12" t="n">
         <v>322</v>
@@ -33666,7 +33729,7 @@
         <v>0.2275014594018226</v>
       </c>
       <c r="J13" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K13" t="n">
         <v>324</v>
@@ -33744,7 +33807,7 @@
         <v>0.2327526602279535</v>
       </c>
       <c r="J14" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K14" t="n">
         <v>323</v>
@@ -33822,7 +33885,7 @@
         <v>0.2361579507117833</v>
       </c>
       <c r="J15" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K15" t="n">
         <v>319</v>
@@ -33894,7 +33957,7 @@
         <v>0.2306537765028834</v>
       </c>
       <c r="J16" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K16" t="n">
         <v>320</v>
@@ -33969,28 +34032,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2004470227606989</v>
+        <v>0.1983596147981395</v>
       </c>
       <c r="J17" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K17" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02853624064251914</v>
+        <v>0.02810676369183518</v>
       </c>
       <c r="M17" t="n">
-        <v>7.038295240079292</v>
+        <v>7.028621007098116</v>
       </c>
       <c r="N17" t="n">
-        <v>78.31575637091878</v>
+        <v>78.11799087948684</v>
       </c>
       <c r="O17" t="n">
-        <v>8.849618995805344</v>
+        <v>8.838438260206768</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2048717761494</v>
+        <v>388.2254892662808</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34047,28 +34110,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1824179766610607</v>
+        <v>0.1758060137783374</v>
       </c>
       <c r="J18" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K18" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0204779324388682</v>
+        <v>0.01906943866469513</v>
       </c>
       <c r="M18" t="n">
-        <v>7.351338678984392</v>
+        <v>7.366460744418334</v>
       </c>
       <c r="N18" t="n">
-        <v>91.27758703216026</v>
+        <v>91.42304254352898</v>
       </c>
       <c r="O18" t="n">
-        <v>9.553930449409826</v>
+        <v>9.561539757985059</v>
       </c>
       <c r="P18" t="n">
-        <v>388.1779187940578</v>
+        <v>388.2434298552105</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34119,28 +34182,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2331445008834173</v>
+        <v>0.224935382210694</v>
       </c>
       <c r="J19" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K19" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02685719701469902</v>
+        <v>0.02505047843509056</v>
       </c>
       <c r="M19" t="n">
-        <v>7.974677906303009</v>
+        <v>7.993519412508166</v>
       </c>
       <c r="N19" t="n">
-        <v>110.7433548687224</v>
+        <v>111.0353267374189</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52346686547368</v>
+        <v>10.53733015224535</v>
       </c>
       <c r="P19" t="n">
-        <v>387.7807091479727</v>
+        <v>387.8630308532988</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34197,28 +34260,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.286244618732961</v>
+        <v>0.2780619788271769</v>
       </c>
       <c r="J20" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K20" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04190295503807484</v>
+        <v>0.03964899353421836</v>
       </c>
       <c r="M20" t="n">
-        <v>7.908624491898818</v>
+        <v>7.924168831493658</v>
       </c>
       <c r="N20" t="n">
-        <v>106.9151884636273</v>
+        <v>107.1923343092452</v>
       </c>
       <c r="O20" t="n">
-        <v>10.3399800997694</v>
+        <v>10.35337308847919</v>
       </c>
       <c r="P20" t="n">
-        <v>387.8798044010704</v>
+        <v>387.9607462038979</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34278,7 +34341,7 @@
         <v>0.1646245737320823</v>
       </c>
       <c r="J21" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K21" t="n">
         <v>296</v>
@@ -34350,7 +34413,7 @@
         <v>0.2189876029741788</v>
       </c>
       <c r="J22" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K22" t="n">
         <v>298</v>
@@ -34428,7 +34491,7 @@
         <v>0.2529280464621204</v>
       </c>
       <c r="J23" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K23" t="n">
         <v>300</v>
@@ -34506,7 +34569,7 @@
         <v>0.2605934300794094</v>
       </c>
       <c r="J24" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K24" t="n">
         <v>300</v>
@@ -34562,7 +34625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y373"/>
+  <dimension ref="A1:Y374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76757,6 +76820,77 @@
         </is>
       </c>
     </row>
+    <row r="374">
+      <c r="A374" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>-36.78490317215365,175.06695480147386</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>-36.78539779301395,175.06772055065792</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>-36.785526373776925,175.0686071857868</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>-36.785739129375955,175.0694650598675</t>
+        </is>
+      </c>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>-36.785859056047705,175.0703525297332</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr"/>
+      <c r="H374" t="inlineStr"/>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="inlineStr"/>
+      <c r="M374" t="inlineStr"/>
+      <c r="N374" t="inlineStr"/>
+      <c r="O374" t="inlineStr"/>
+      <c r="P374" t="inlineStr"/>
+      <c r="Q374" t="inlineStr">
+        <is>
+          <t>-36.78713917343961,175.0800285681474</t>
+        </is>
+      </c>
+      <c r="R374" t="inlineStr">
+        <is>
+          <t>-36.78727871034299,175.08091512063683</t>
+        </is>
+      </c>
+      <c r="S374" t="inlineStr">
+        <is>
+          <t>-36.78734808736259,175.08180791652353</t>
+        </is>
+      </c>
+      <c r="T374" t="inlineStr">
+        <is>
+          <t>-36.78738317602055,175.08270467699407</t>
+        </is>
+      </c>
+      <c r="U374" t="inlineStr"/>
+      <c r="V374" t="inlineStr"/>
+      <c r="W374" t="inlineStr"/>
+      <c r="X374" t="inlineStr"/>
+      <c r="Y374" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y374"/>
+  <dimension ref="A1:Y375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28156,6 +28156,87 @@
         </is>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>385.38</v>
+      </c>
+      <c r="C375" t="n">
+        <v>384.7844444444444</v>
+      </c>
+      <c r="D375" t="n">
+        <v>389.17</v>
+      </c>
+      <c r="E375" t="n">
+        <v>373.1571428571429</v>
+      </c>
+      <c r="F375" t="n">
+        <v>377.6571428571429</v>
+      </c>
+      <c r="G375" t="n">
+        <v>379.3244444444445</v>
+      </c>
+      <c r="H375" t="n">
+        <v>386.4</v>
+      </c>
+      <c r="I375" t="n">
+        <v>387.63</v>
+      </c>
+      <c r="J375" t="n">
+        <v>382.79</v>
+      </c>
+      <c r="K375" t="n">
+        <v>378.1233333333333</v>
+      </c>
+      <c r="L375" t="n">
+        <v>382.9115384615384</v>
+      </c>
+      <c r="M375" t="n">
+        <v>377.54</v>
+      </c>
+      <c r="N375" t="n">
+        <v>386.4933333333333</v>
+      </c>
+      <c r="O375" t="n">
+        <v>392.25</v>
+      </c>
+      <c r="P375" t="n">
+        <v>396.1380952380952</v>
+      </c>
+      <c r="Q375" t="n">
+        <v>394.62</v>
+      </c>
+      <c r="R375" t="n">
+        <v>398.68</v>
+      </c>
+      <c r="S375" t="n">
+        <v>392.4080952380953</v>
+      </c>
+      <c r="T375" t="n">
+        <v>396.27</v>
+      </c>
+      <c r="U375" t="n">
+        <v>388.59</v>
+      </c>
+      <c r="V375" t="n">
+        <v>386.93</v>
+      </c>
+      <c r="W375" t="n">
+        <v>390.05</v>
+      </c>
+      <c r="X375" t="n">
+        <v>403.16</v>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28167,7 +28248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B452"/>
+  <dimension ref="A1:B453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32695,6 +32776,16 @@
       </c>
       <c r="B452" t="n">
         <v>0.57</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>-0.88</v>
       </c>
     </row>
   </sheetData>
@@ -32868,28 +32959,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1379915495059916</v>
+        <v>0.1379846197400588</v>
       </c>
       <c r="J2" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K2" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01418618733885002</v>
+        <v>0.0142735043016925</v>
       </c>
       <c r="M2" t="n">
-        <v>6.425300038736435</v>
+        <v>6.405131608666916</v>
       </c>
       <c r="N2" t="n">
-        <v>72.42436849106689</v>
+        <v>72.19661932016045</v>
       </c>
       <c r="O2" t="n">
-        <v>8.510250788964264</v>
+        <v>8.496859379803837</v>
       </c>
       <c r="P2" t="n">
-        <v>381.8190705503496</v>
+        <v>381.8191410390098</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -32946,28 +33037,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02821308188149573</v>
+        <v>0.03007838633199086</v>
       </c>
       <c r="J3" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K3" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005489905201244705</v>
+        <v>0.0006275606523197252</v>
       </c>
       <c r="M3" t="n">
-        <v>7.009427227682988</v>
+        <v>6.997397025172519</v>
       </c>
       <c r="N3" t="n">
-        <v>78.90595890082614</v>
+        <v>78.69154082704087</v>
       </c>
       <c r="O3" t="n">
-        <v>8.882902616871702</v>
+        <v>8.870825261893104</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8988068708932</v>
+        <v>380.8797088383127</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33024,28 +33115,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01922127552628327</v>
+        <v>0.02302911199552106</v>
       </c>
       <c r="J4" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K4" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002952695274238692</v>
+        <v>0.0004256156698132507</v>
       </c>
       <c r="M4" t="n">
-        <v>6.221205108763462</v>
+        <v>6.222634461738492</v>
       </c>
       <c r="N4" t="n">
-        <v>68.14170654549038</v>
+        <v>68.05927380448838</v>
       </c>
       <c r="O4" t="n">
-        <v>8.254799000913977</v>
+        <v>8.249804470682223</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2055955721096</v>
+        <v>382.1666694363342</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33102,28 +33193,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1067307850654116</v>
+        <v>0.1037441454053431</v>
       </c>
       <c r="J5" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K5" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006676263986049591</v>
+        <v>0.006342638676899104</v>
       </c>
       <c r="M5" t="n">
-        <v>7.608511962634418</v>
+        <v>7.601624916420749</v>
       </c>
       <c r="N5" t="n">
-        <v>92.5530432519981</v>
+        <v>92.34716466883242</v>
       </c>
       <c r="O5" t="n">
-        <v>9.620449222983202</v>
+        <v>9.609743215551205</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5216921051367</v>
+        <v>375.5523649962438</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33180,28 +33271,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1277324506410439</v>
+        <v>0.12647647092523</v>
       </c>
       <c r="J6" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K6" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L6" t="n">
-        <v>0.00729652861519936</v>
+        <v>0.007196002992156947</v>
       </c>
       <c r="M6" t="n">
-        <v>8.619489670784963</v>
+        <v>8.59970720695727</v>
       </c>
       <c r="N6" t="n">
-        <v>123.288944503397</v>
+        <v>122.9232473590908</v>
       </c>
       <c r="O6" t="n">
-        <v>11.10355548927446</v>
+        <v>11.0870756901489</v>
       </c>
       <c r="P6" t="n">
-        <v>376.551738311973</v>
+        <v>376.5645286430133</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33258,28 +33349,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1091843943823298</v>
+        <v>0.1084351958359565</v>
       </c>
       <c r="J7" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K7" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007657171512158611</v>
+        <v>0.007598437261366886</v>
       </c>
       <c r="M7" t="n">
-        <v>7.147653992833614</v>
+        <v>7.129496339607561</v>
       </c>
       <c r="N7" t="n">
-        <v>86.02193131887574</v>
+        <v>85.75656886021929</v>
       </c>
       <c r="O7" t="n">
-        <v>9.274800877586308</v>
+        <v>9.26048426704669</v>
       </c>
       <c r="P7" t="n">
-        <v>377.7829927983347</v>
+        <v>377.790591907341</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33336,28 +33427,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.153351202370615</v>
+        <v>0.1541614244976241</v>
       </c>
       <c r="J8" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K8" t="n">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01589767866909275</v>
+        <v>0.01615964107476042</v>
       </c>
       <c r="M8" t="n">
-        <v>7.079162474904149</v>
+        <v>7.060768455750426</v>
       </c>
       <c r="N8" t="n">
-        <v>81.30873591231401</v>
+        <v>81.05739648148797</v>
       </c>
       <c r="O8" t="n">
-        <v>9.017135682261525</v>
+        <v>9.003188128740172</v>
       </c>
       <c r="P8" t="n">
-        <v>381.0503368718877</v>
+        <v>381.0421504053186</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33414,28 +33505,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08681608309580044</v>
+        <v>0.08627692341792086</v>
       </c>
       <c r="J9" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K9" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004908159181521321</v>
+        <v>0.004878265393390313</v>
       </c>
       <c r="M9" t="n">
-        <v>6.724712813178317</v>
+        <v>6.706380418421736</v>
       </c>
       <c r="N9" t="n">
-        <v>85.4515723324603</v>
+        <v>85.18112393628887</v>
       </c>
       <c r="O9" t="n">
-        <v>9.244001965191282</v>
+        <v>9.229362054675766</v>
       </c>
       <c r="P9" t="n">
-        <v>386.2818040913439</v>
+        <v>386.2872139158812</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33492,28 +33583,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1154430347451389</v>
+        <v>0.1137358741268442</v>
       </c>
       <c r="J10" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K10" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006921706720958487</v>
+        <v>0.006759295148181077</v>
       </c>
       <c r="M10" t="n">
-        <v>8.118720604420668</v>
+        <v>8.103163851488734</v>
       </c>
       <c r="N10" t="n">
-        <v>107.3810524280078</v>
+        <v>107.0700372842287</v>
       </c>
       <c r="O10" t="n">
-        <v>10.36248292775471</v>
+        <v>10.34746525890417</v>
       </c>
       <c r="P10" t="n">
-        <v>382.7265765590928</v>
+        <v>382.7437290049619</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33570,28 +33661,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1650135733842646</v>
+        <v>0.163122373905056</v>
       </c>
       <c r="J11" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K11" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01772129262121824</v>
+        <v>0.01742324170917764</v>
       </c>
       <c r="M11" t="n">
-        <v>6.751112956736919</v>
+        <v>6.74004806795711</v>
       </c>
       <c r="N11" t="n">
-        <v>84.59455509271353</v>
+        <v>84.36266578897674</v>
       </c>
       <c r="O11" t="n">
-        <v>9.197529836467698</v>
+        <v>9.184915121490059</v>
       </c>
       <c r="P11" t="n">
-        <v>377.0896559791979</v>
+        <v>377.1086282221352</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33648,28 +33739,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1751770096721765</v>
+        <v>0.1753059104365071</v>
       </c>
       <c r="J12" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K12" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02328315311996454</v>
+        <v>0.02345437090028069</v>
       </c>
       <c r="M12" t="n">
-        <v>6.446320944349476</v>
+        <v>6.427057577824209</v>
       </c>
       <c r="N12" t="n">
-        <v>72.45719925195102</v>
+        <v>72.23302855705469</v>
       </c>
       <c r="O12" t="n">
-        <v>8.51217946544544</v>
+        <v>8.499001621193791</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1515845030379</v>
+        <v>378.1502911148872</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33726,28 +33817,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2275014594018226</v>
+        <v>0.2217970457582548</v>
       </c>
       <c r="J13" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K13" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02854035332944471</v>
+        <v>0.02723631902646473</v>
       </c>
       <c r="M13" t="n">
-        <v>7.734552087163284</v>
+        <v>7.742489720413347</v>
       </c>
       <c r="N13" t="n">
-        <v>99.77828019038328</v>
+        <v>99.78659895059644</v>
       </c>
       <c r="O13" t="n">
-        <v>9.988907857738166</v>
+        <v>9.989324248946795</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8187997617335</v>
+        <v>381.8761268799486</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33804,28 +33895,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2327526602279535</v>
+        <v>0.2288978295616808</v>
       </c>
       <c r="J14" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K14" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03629860093808124</v>
+        <v>0.03529142570870492</v>
       </c>
       <c r="M14" t="n">
-        <v>7.061527744514883</v>
+        <v>7.059868395618165</v>
       </c>
       <c r="N14" t="n">
-        <v>82.68910789557329</v>
+        <v>82.57731940140422</v>
       </c>
       <c r="O14" t="n">
-        <v>9.093355150634626</v>
+        <v>9.087206358469263</v>
       </c>
       <c r="P14" t="n">
-        <v>387.3153425830324</v>
+        <v>387.3534681539518</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33882,28 +33973,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2361579507117833</v>
+        <v>0.2341552681010809</v>
       </c>
       <c r="J15" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K15" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03953670371976403</v>
+        <v>0.03910604841768683</v>
       </c>
       <c r="M15" t="n">
-        <v>6.769136770428129</v>
+        <v>6.758520798274891</v>
       </c>
       <c r="N15" t="n">
-        <v>77.7170062131395</v>
+        <v>77.5117456149211</v>
       </c>
       <c r="O15" t="n">
-        <v>8.815724939739187</v>
+        <v>8.804075511654878</v>
       </c>
       <c r="P15" t="n">
-        <v>389.6211058600135</v>
+        <v>389.6408745294971</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -33954,28 +34045,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2306537765028834</v>
+        <v>0.2318747124567703</v>
       </c>
       <c r="J16" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K16" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03470442039611121</v>
+        <v>0.03526360969309417</v>
       </c>
       <c r="M16" t="n">
-        <v>7.29053855880135</v>
+        <v>7.274421047325048</v>
       </c>
       <c r="N16" t="n">
-        <v>85.18679173726855</v>
+        <v>84.93532263796976</v>
       </c>
       <c r="O16" t="n">
-        <v>9.229669102263014</v>
+        <v>9.216036167353607</v>
       </c>
       <c r="P16" t="n">
-        <v>388.0437308887965</v>
+        <v>388.0317507069942</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34032,28 +34123,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1983596147981395</v>
+        <v>0.199060987332854</v>
       </c>
       <c r="J17" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K17" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02810676369183518</v>
+        <v>0.02846059809279144</v>
       </c>
       <c r="M17" t="n">
-        <v>7.028621007098116</v>
+        <v>7.010792912285539</v>
       </c>
       <c r="N17" t="n">
-        <v>78.11799087948684</v>
+        <v>77.88390332914426</v>
       </c>
       <c r="O17" t="n">
-        <v>8.838438260206768</v>
+        <v>8.825185739073385</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2254892662808</v>
+        <v>388.2185376943463</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34110,28 +34201,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1758060137783374</v>
+        <v>0.1790936071934583</v>
       </c>
       <c r="J18" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K18" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01906943866469513</v>
+        <v>0.0198660300795378</v>
       </c>
       <c r="M18" t="n">
-        <v>7.366460744418334</v>
+        <v>7.361072275570675</v>
       </c>
       <c r="N18" t="n">
-        <v>91.42304254352898</v>
+        <v>91.24627141150759</v>
       </c>
       <c r="O18" t="n">
-        <v>9.561539757985059</v>
+        <v>9.552291422036264</v>
       </c>
       <c r="P18" t="n">
-        <v>388.2434298552105</v>
+        <v>388.2107417438714</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34182,28 +34273,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.224935382210694</v>
+        <v>0.2242068162980583</v>
       </c>
       <c r="J19" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K19" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02505047843509056</v>
+        <v>0.02503623970139635</v>
       </c>
       <c r="M19" t="n">
-        <v>7.993519412508166</v>
+        <v>7.972534454172727</v>
       </c>
       <c r="N19" t="n">
-        <v>111.0353267374189</v>
+        <v>110.6955255578194</v>
       </c>
       <c r="O19" t="n">
-        <v>10.53733015224535</v>
+        <v>10.52119411273357</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8630308532988</v>
+        <v>387.8703620389949</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34260,28 +34351,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2780619788271769</v>
+        <v>0.2787103277531601</v>
       </c>
       <c r="J20" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K20" t="n">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03964899353421836</v>
+        <v>0.04006170196949033</v>
       </c>
       <c r="M20" t="n">
-        <v>7.924168831493658</v>
+        <v>7.902673597572723</v>
       </c>
       <c r="N20" t="n">
-        <v>107.1923343092452</v>
+        <v>106.8537698578257</v>
       </c>
       <c r="O20" t="n">
-        <v>10.35337308847919</v>
+        <v>10.33700971547506</v>
       </c>
       <c r="P20" t="n">
-        <v>387.9607462038979</v>
+        <v>387.9543106527603</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34338,28 +34429,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1646245737320823</v>
+        <v>0.16085010698838</v>
       </c>
       <c r="J21" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K21" t="n">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01662445807043322</v>
+        <v>0.01596877348695103</v>
       </c>
       <c r="M21" t="n">
-        <v>7.318251214392173</v>
+        <v>7.312427755426014</v>
       </c>
       <c r="N21" t="n">
-        <v>92.60332989445874</v>
+        <v>92.41265828255374</v>
       </c>
       <c r="O21" t="n">
-        <v>9.623062396891061</v>
+        <v>9.613150278787581</v>
       </c>
       <c r="P21" t="n">
-        <v>390.3564045400984</v>
+        <v>390.3931410922089</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34410,28 +34501,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.2189876029741788</v>
+        <v>0.21341109508264</v>
       </c>
       <c r="J22" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K22" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02204766914172862</v>
+        <v>0.0210597749391378</v>
       </c>
       <c r="M22" t="n">
-        <v>8.212426999547683</v>
+        <v>8.216977515135028</v>
       </c>
       <c r="N22" t="n">
-        <v>121.9343602756783</v>
+        <v>121.7860260406902</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04238924670193</v>
+        <v>11.03567062034248</v>
       </c>
       <c r="P22" t="n">
-        <v>390.1138208626152</v>
+        <v>390.1681657799472</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34488,28 +34579,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2529280464621204</v>
+        <v>0.2491734111913125</v>
       </c>
       <c r="J23" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K23" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02767030896132427</v>
+        <v>0.02702881706501348</v>
       </c>
       <c r="M23" t="n">
-        <v>8.911199548692993</v>
+        <v>8.9015055522603</v>
       </c>
       <c r="N23" t="n">
-        <v>128.4939014328864</v>
+        <v>128.1867389602966</v>
       </c>
       <c r="O23" t="n">
-        <v>11.3355150492991</v>
+        <v>11.32195826526032</v>
       </c>
       <c r="P23" t="n">
-        <v>389.5353485619667</v>
+        <v>389.5721710605144</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34566,28 +34657,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2605934300794094</v>
+        <v>0.2635038056656907</v>
       </c>
       <c r="J24" t="n">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K24" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0286124011250467</v>
+        <v>0.02941149295173495</v>
       </c>
       <c r="M24" t="n">
-        <v>9.14508794794969</v>
+        <v>9.130010254199668</v>
       </c>
       <c r="N24" t="n">
-        <v>131.2885317006946</v>
+        <v>130.9242955797799</v>
       </c>
       <c r="O24" t="n">
-        <v>11.4581207752709</v>
+        <v>11.44221550136947</v>
       </c>
       <c r="P24" t="n">
-        <v>391.7367364805528</v>
+        <v>391.7080762064112</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34625,7 +34716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y374"/>
+  <dimension ref="A1:Y375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -63459,7 +63550,7 @@
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>-36.78685814143487,175.07648378149264</t>
+          <t>-36.78685814143486,175.07648378149264</t>
         </is>
       </c>
       <c r="N258" t="inlineStr">
@@ -64981,7 +65072,7 @@
       </c>
       <c r="W270" t="inlineStr">
         <is>
-          <t>-36.78758965179778,175.0853953995922</t>
+          <t>-36.787589651797774,175.0853953995922</t>
         </is>
       </c>
       <c r="X270" t="inlineStr">
@@ -76891,6 +76982,133 @@
         </is>
       </c>
     </row>
+    <row r="375">
+      <c r="A375" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>-36.78507177727128,175.06689911869577</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>-36.785271184212846,175.06776236317785</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>-36.78542721036477,175.06863993372667</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>-36.78576074501641,175.06945807257804</t>
+        </is>
+      </c>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>-36.78590821908078,175.07033703143796</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>-36.78607941230732,175.07120892533118</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>-36.786200941092126,175.0720957018136</t>
+        </is>
+      </c>
+      <c r="I375" t="inlineStr">
+        <is>
+          <t>-36.78636788228637,175.07294995735893</t>
+        </is>
+      </c>
+      <c r="J375" t="inlineStr">
+        <is>
+          <t>-36.78650681949138,175.0738112090137</t>
+        </is>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>-36.78663129681189,175.07470123299316</t>
+        </is>
+      </c>
+      <c r="L375" t="inlineStr">
+        <is>
+          <t>-36.78671128001642,175.07560204043423</t>
+        </is>
+      </c>
+      <c r="M375" t="inlineStr">
+        <is>
+          <t>-36.786891175471304,175.07647670578424</t>
+        </is>
+      </c>
+      <c r="N375" t="inlineStr">
+        <is>
+          <t>-36.7869429247362,175.07737032707126</t>
+        </is>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>-36.78699097065913,175.07825064152595</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>-36.787018156908026,175.07913898833422</t>
+        </is>
+      </c>
+      <c r="Q375" t="inlineStr">
+        <is>
+          <t>-36.78709445165766,175.08003264185717</t>
+        </is>
+      </c>
+      <c r="R375" t="inlineStr">
+        <is>
+          <t>-36.78712051210379,175.0809284203664</t>
+        </is>
+      </c>
+      <c r="S375" t="inlineStr">
+        <is>
+          <t>-36.787231417258425,175.08181662605529</t>
+        </is>
+      </c>
+      <c r="T375" t="inlineStr">
+        <is>
+          <t>-36.78724850971544,175.08271440524578</t>
+        </is>
+      </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>-36.787369451853706,175.08360538750463</t>
+        </is>
+      </c>
+      <c r="V375" t="inlineStr">
+        <is>
+          <t>-36.78743627806179,175.0845016335853</t>
+        </is>
+      </c>
+      <c r="W375" t="inlineStr">
+        <is>
+          <t>-36.78746693684293,175.08540991666558</t>
+        </is>
+      </c>
+      <c r="X375" t="inlineStr">
+        <is>
+          <t>-36.78744849581026,175.08632725050757</t>
+        </is>
+      </c>
+      <c r="Y375" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:Y376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28237,6 +28237,87 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>389.46</v>
+      </c>
+      <c r="C376" t="n">
+        <v>387.88</v>
+      </c>
+      <c r="D376" t="n">
+        <v>390.5772727272728</v>
+      </c>
+      <c r="E376" t="n">
+        <v>381.7828571428572</v>
+      </c>
+      <c r="F376" t="n">
+        <v>392.3128571428572</v>
+      </c>
+      <c r="G376" t="n">
+        <v>383.17</v>
+      </c>
+      <c r="H376" t="n">
+        <v>394.84</v>
+      </c>
+      <c r="I376" t="n">
+        <v>388.73</v>
+      </c>
+      <c r="J376" t="n">
+        <v>394.2</v>
+      </c>
+      <c r="K376" t="n">
+        <v>379.98</v>
+      </c>
+      <c r="L376" t="n">
+        <v>385.5015384615385</v>
+      </c>
+      <c r="M376" t="n">
+        <v>396.48</v>
+      </c>
+      <c r="N376" t="n">
+        <v>389.24</v>
+      </c>
+      <c r="O376" t="n">
+        <v>393.83</v>
+      </c>
+      <c r="P376" t="n">
+        <v>392.5285714285715</v>
+      </c>
+      <c r="Q376" t="n">
+        <v>393.5572727272727</v>
+      </c>
+      <c r="R376" t="n">
+        <v>386.6572727272728</v>
+      </c>
+      <c r="S376" t="n">
+        <v>390.6585714285715</v>
+      </c>
+      <c r="T376" t="n">
+        <v>386.8</v>
+      </c>
+      <c r="U376" t="n">
+        <v>390.65</v>
+      </c>
+      <c r="V376" t="n">
+        <v>392.95</v>
+      </c>
+      <c r="W376" t="n">
+        <v>386.48</v>
+      </c>
+      <c r="X376" t="n">
+        <v>386.25</v>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28248,7 +28329,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B453"/>
+  <dimension ref="A1:B454"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32786,6 +32867,16 @@
       </c>
       <c r="B453" t="n">
         <v>-0.88</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -32959,28 +33050,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1379846197400588</v>
+        <v>0.1404060765451024</v>
       </c>
       <c r="J2" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K2" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0142735043016925</v>
+        <v>0.01485252371406964</v>
       </c>
       <c r="M2" t="n">
-        <v>6.405131608666916</v>
+        <v>6.397471816587485</v>
       </c>
       <c r="N2" t="n">
-        <v>72.19661932016045</v>
+        <v>72.02162600633741</v>
       </c>
       <c r="O2" t="n">
-        <v>8.496859379803837</v>
+        <v>8.486555603207783</v>
       </c>
       <c r="P2" t="n">
-        <v>381.8191410390098</v>
+        <v>381.7944838221316</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33037,28 +33128,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03007838633199086</v>
+        <v>0.03372993906798445</v>
       </c>
       <c r="J3" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K3" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0006275606523197252</v>
+        <v>0.0007927085065256856</v>
       </c>
       <c r="M3" t="n">
-        <v>6.997397025172519</v>
+        <v>6.994697718357235</v>
       </c>
       <c r="N3" t="n">
-        <v>78.69154082704087</v>
+        <v>78.56662645374081</v>
       </c>
       <c r="O3" t="n">
-        <v>8.870825261893104</v>
+        <v>8.863781724170604</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8797088383127</v>
+        <v>380.8422818702812</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33115,28 +33206,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02302911199552106</v>
+        <v>0.02759757450464318</v>
       </c>
       <c r="J4" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K4" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004256156698132507</v>
+        <v>0.0006131890809260021</v>
       </c>
       <c r="M4" t="n">
-        <v>6.222634461738492</v>
+        <v>6.22825542720457</v>
       </c>
       <c r="N4" t="n">
-        <v>68.05927380448838</v>
+        <v>68.03600625300807</v>
       </c>
       <c r="O4" t="n">
-        <v>8.249804470682223</v>
+        <v>8.248394162078341</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1666694363342</v>
+        <v>382.1199174898256</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33193,28 +33284,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1037441454053431</v>
+        <v>0.1057930970332012</v>
       </c>
       <c r="J5" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K5" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006342638676899104</v>
+        <v>0.006630589154070443</v>
       </c>
       <c r="M5" t="n">
-        <v>7.601624916420749</v>
+        <v>7.588456089407988</v>
       </c>
       <c r="N5" t="n">
-        <v>92.34716466883242</v>
+        <v>92.10052212836395</v>
       </c>
       <c r="O5" t="n">
-        <v>9.609743215551205</v>
+        <v>9.596901694211729</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5523649962438</v>
+        <v>375.5312990908131</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33271,28 +33362,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.12647647092523</v>
+        <v>0.1335431411706674</v>
       </c>
       <c r="J6" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K6" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L6" t="n">
-        <v>0.007196002992156947</v>
+        <v>0.008031896115680559</v>
       </c>
       <c r="M6" t="n">
-        <v>8.59970720695727</v>
+        <v>8.611133173593826</v>
       </c>
       <c r="N6" t="n">
-        <v>122.9232473590908</v>
+        <v>123.0193162489233</v>
       </c>
       <c r="O6" t="n">
-        <v>11.0870756901489</v>
+        <v>11.09140731597768</v>
       </c>
       <c r="P6" t="n">
-        <v>376.5645286430133</v>
+        <v>376.4924837037267</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33349,28 +33440,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1084351958359565</v>
+        <v>0.109922645704566</v>
       </c>
       <c r="J7" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K7" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007598437261366886</v>
+        <v>0.007851609039766783</v>
       </c>
       <c r="M7" t="n">
-        <v>7.129496339607561</v>
+        <v>7.1146068556037</v>
       </c>
       <c r="N7" t="n">
-        <v>85.75656886021929</v>
+        <v>85.50825154151667</v>
       </c>
       <c r="O7" t="n">
-        <v>9.26048426704669</v>
+        <v>9.247067185952348</v>
       </c>
       <c r="P7" t="n">
-        <v>377.790591907341</v>
+        <v>377.7754877843275</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33427,28 +33518,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1541614244976241</v>
+        <v>0.1598780746454267</v>
       </c>
       <c r="J8" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K8" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01615964107476042</v>
+        <v>0.01739984681552509</v>
       </c>
       <c r="M8" t="n">
-        <v>7.060768455750426</v>
+        <v>7.066624052424045</v>
       </c>
       <c r="N8" t="n">
-        <v>81.05739648148797</v>
+        <v>81.10207608367872</v>
       </c>
       <c r="O8" t="n">
-        <v>9.003188128740172</v>
+        <v>9.005669108049592</v>
       </c>
       <c r="P8" t="n">
-        <v>381.0421504053186</v>
+        <v>380.9843247444009</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33505,28 +33596,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08627692341792086</v>
+        <v>0.08640025418341968</v>
       </c>
       <c r="J9" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K9" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004878265393390313</v>
+        <v>0.00492289263543555</v>
       </c>
       <c r="M9" t="n">
-        <v>6.706380418421736</v>
+        <v>6.685612879611932</v>
       </c>
       <c r="N9" t="n">
-        <v>85.18112393628887</v>
+        <v>84.90998198867634</v>
       </c>
       <c r="O9" t="n">
-        <v>9.229362054675766</v>
+        <v>9.214661251976457</v>
       </c>
       <c r="P9" t="n">
-        <v>386.2872139158812</v>
+        <v>386.2859750737864</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33583,28 +33674,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1137358741268442</v>
+        <v>0.1186664524266779</v>
       </c>
       <c r="J10" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L10" t="n">
-        <v>0.006759295148181077</v>
+        <v>0.007382774873120002</v>
       </c>
       <c r="M10" t="n">
-        <v>8.103163851488734</v>
+        <v>8.102109694469926</v>
       </c>
       <c r="N10" t="n">
-        <v>107.0700372842287</v>
+        <v>106.959292289243</v>
       </c>
       <c r="O10" t="n">
-        <v>10.34746525890417</v>
+        <v>10.34211256413519</v>
       </c>
       <c r="P10" t="n">
-        <v>382.7437290049619</v>
+        <v>382.6941341901465</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33661,28 +33752,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.163122373905056</v>
+        <v>0.1623365344934874</v>
       </c>
       <c r="J11" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K11" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01742324170917764</v>
+        <v>0.01736167588607707</v>
       </c>
       <c r="M11" t="n">
-        <v>6.74004806795711</v>
+        <v>6.723242414156834</v>
       </c>
       <c r="N11" t="n">
-        <v>84.36266578897674</v>
+        <v>84.10552329482474</v>
       </c>
       <c r="O11" t="n">
-        <v>9.184915121490059</v>
+        <v>9.170906350782605</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1086282221352</v>
+        <v>377.1165203991274</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33739,28 +33830,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1753059104365071</v>
+        <v>0.1769054978193062</v>
       </c>
       <c r="J12" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K12" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02345437090028069</v>
+        <v>0.02400610083826715</v>
       </c>
       <c r="M12" t="n">
-        <v>6.427057577824209</v>
+        <v>6.415792680780142</v>
       </c>
       <c r="N12" t="n">
-        <v>72.23302855705469</v>
+        <v>72.03421856373882</v>
       </c>
       <c r="O12" t="n">
-        <v>8.499001621193791</v>
+        <v>8.487297482929346</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1502911148872</v>
+        <v>378.1342228300862</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33817,28 +33908,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2217970457582548</v>
+        <v>0.2267321406076297</v>
       </c>
       <c r="J13" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K13" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02723631902646473</v>
+        <v>0.02852117505066465</v>
       </c>
       <c r="M13" t="n">
-        <v>7.742489720413347</v>
+        <v>7.74528492115462</v>
       </c>
       <c r="N13" t="n">
-        <v>99.78659895059644</v>
+        <v>99.71900702337139</v>
       </c>
       <c r="O13" t="n">
-        <v>9.989324248946795</v>
+        <v>9.985940467646069</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8761268799486</v>
+        <v>381.8264739775938</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33895,28 +33986,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2288978295616808</v>
+        <v>0.2266367589011838</v>
       </c>
       <c r="J14" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K14" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03529142570870492</v>
+        <v>0.03479934607434454</v>
       </c>
       <c r="M14" t="n">
-        <v>7.059868395618165</v>
+        <v>7.049894587818184</v>
       </c>
       <c r="N14" t="n">
-        <v>82.57731940140422</v>
+        <v>82.37311573815867</v>
       </c>
       <c r="O14" t="n">
-        <v>9.087206358469263</v>
+        <v>9.075963625872388</v>
       </c>
       <c r="P14" t="n">
-        <v>387.3534681539518</v>
+        <v>387.3758566693656</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -33973,28 +34064,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2341552681010809</v>
+        <v>0.233083681547726</v>
       </c>
       <c r="J15" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K15" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03910604841768683</v>
+        <v>0.03898421388374684</v>
       </c>
       <c r="M15" t="n">
-        <v>6.758520798274891</v>
+        <v>6.743075126628117</v>
       </c>
       <c r="N15" t="n">
-        <v>77.5117456149211</v>
+        <v>77.28116358065699</v>
       </c>
       <c r="O15" t="n">
-        <v>8.804075511654878</v>
+        <v>8.790970571026671</v>
       </c>
       <c r="P15" t="n">
-        <v>389.6408745294971</v>
+        <v>389.6514643006801</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34045,28 +34136,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2318747124567703</v>
+        <v>0.2310117617229065</v>
       </c>
       <c r="J16" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K16" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03526360969309417</v>
+        <v>0.03521526416079701</v>
       </c>
       <c r="M16" t="n">
-        <v>7.274421047325048</v>
+        <v>7.256492886577598</v>
       </c>
       <c r="N16" t="n">
-        <v>84.93532263796976</v>
+        <v>84.67857634143817</v>
       </c>
       <c r="O16" t="n">
-        <v>9.216036167353607</v>
+        <v>9.202096301465128</v>
       </c>
       <c r="P16" t="n">
-        <v>388.0317507069942</v>
+        <v>388.040227817407</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34123,28 +34214,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.199060987332854</v>
+        <v>0.199161048096919</v>
       </c>
       <c r="J17" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K17" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02846059809279144</v>
+        <v>0.02865020283126651</v>
       </c>
       <c r="M17" t="n">
-        <v>7.010792912285539</v>
+        <v>6.989938882734561</v>
       </c>
       <c r="N17" t="n">
-        <v>77.88390332914426</v>
+        <v>77.64655125089577</v>
       </c>
       <c r="O17" t="n">
-        <v>8.825185739073385</v>
+        <v>8.811728051347009</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2185376943463</v>
+        <v>388.2175448088825</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34201,28 +34292,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1790936071934583</v>
+        <v>0.1756568902466268</v>
       </c>
       <c r="J18" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K18" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0198660300795378</v>
+        <v>0.0192101820860946</v>
       </c>
       <c r="M18" t="n">
-        <v>7.361072275570675</v>
+        <v>7.358136759412886</v>
       </c>
       <c r="N18" t="n">
-        <v>91.24627141150759</v>
+        <v>91.08200996507054</v>
       </c>
       <c r="O18" t="n">
-        <v>9.552291422036264</v>
+        <v>9.543689536288916</v>
       </c>
       <c r="P18" t="n">
-        <v>388.2107417438714</v>
+        <v>388.2449525836203</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34273,28 +34364,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2242068162980583</v>
+        <v>0.2224967288318105</v>
       </c>
       <c r="J19" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K19" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02503623970139635</v>
+        <v>0.02480145191573824</v>
       </c>
       <c r="M19" t="n">
-        <v>7.972534454172727</v>
+        <v>7.956856042552448</v>
       </c>
       <c r="N19" t="n">
-        <v>110.6955255578194</v>
+        <v>110.3808209417752</v>
       </c>
       <c r="O19" t="n">
-        <v>10.52119411273357</v>
+        <v>10.50622772177413</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8703620389949</v>
+        <v>387.8875893987129</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34351,28 +34442,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2787103277531601</v>
+        <v>0.2738551894025681</v>
       </c>
       <c r="J20" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K20" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L20" t="n">
-        <v>0.04006170196949033</v>
+        <v>0.03888225559896941</v>
       </c>
       <c r="M20" t="n">
-        <v>7.902673597572723</v>
+        <v>7.90189099243693</v>
       </c>
       <c r="N20" t="n">
-        <v>106.8537698578257</v>
+        <v>106.7348325113285</v>
       </c>
       <c r="O20" t="n">
-        <v>10.33700971547506</v>
+        <v>10.33125512758873</v>
       </c>
       <c r="P20" t="n">
-        <v>387.9543106527603</v>
+        <v>388.002558405759</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34429,28 +34520,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.16085010698838</v>
+        <v>0.1584210750712396</v>
       </c>
       <c r="J21" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K21" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01596877348695103</v>
+        <v>0.01559209732592015</v>
       </c>
       <c r="M21" t="n">
-        <v>7.312427755426014</v>
+        <v>7.299933151207822</v>
       </c>
       <c r="N21" t="n">
-        <v>92.41265828255374</v>
+        <v>92.15336009922157</v>
       </c>
       <c r="O21" t="n">
-        <v>9.613150278787581</v>
+        <v>9.599654165605216</v>
       </c>
       <c r="P21" t="n">
-        <v>390.3931410922089</v>
+        <v>390.4168091355319</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34501,28 +34592,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.21341109508264</v>
+        <v>0.211694262596524</v>
       </c>
       <c r="J22" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K22" t="n">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0210597749391378</v>
+        <v>0.02086370714547592</v>
       </c>
       <c r="M22" t="n">
-        <v>8.216977515135028</v>
+        <v>8.199466311323647</v>
       </c>
       <c r="N22" t="n">
-        <v>121.7860260406902</v>
+        <v>121.404987781939</v>
       </c>
       <c r="O22" t="n">
-        <v>11.03567062034248</v>
+        <v>11.01839315789462</v>
       </c>
       <c r="P22" t="n">
-        <v>390.1681657799472</v>
+        <v>390.1849152732642</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34579,28 +34670,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2491734111913125</v>
+        <v>0.2432783696857005</v>
       </c>
       <c r="J23" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K23" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02702881706501348</v>
+        <v>0.02590671775552655</v>
       </c>
       <c r="M23" t="n">
-        <v>8.9015055522603</v>
+        <v>8.904013121890689</v>
       </c>
       <c r="N23" t="n">
-        <v>128.1867389602966</v>
+        <v>128.0611807403108</v>
       </c>
       <c r="O23" t="n">
-        <v>11.32195826526032</v>
+        <v>11.3164120082432</v>
       </c>
       <c r="P23" t="n">
-        <v>389.5721710605144</v>
+        <v>389.6300490054221</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34657,28 +34748,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2635038056656907</v>
+        <v>0.2559185569367059</v>
       </c>
       <c r="J24" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K24" t="n">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02941149295173495</v>
+        <v>0.02786628979367001</v>
       </c>
       <c r="M24" t="n">
-        <v>9.130010254199668</v>
+        <v>9.140658344155954</v>
       </c>
       <c r="N24" t="n">
-        <v>130.9242955797799</v>
+        <v>130.9856164182759</v>
       </c>
       <c r="O24" t="n">
-        <v>11.44221550136947</v>
+        <v>11.44489477532563</v>
       </c>
       <c r="P24" t="n">
-        <v>391.7080762064112</v>
+        <v>391.7828555571662</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34716,7 +34807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y375"/>
+  <dimension ref="A1:Y376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77109,6 +77200,133 @@
         </is>
       </c>
     </row>
+    <row r="376">
+      <c r="A376" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>-36.78503624478972,175.06691085351505</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>-36.78524422516808,175.06777126637746</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>-36.78541495447902,175.06864398113126</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr">
+        <is>
+          <t>-36.785685520094376,175.06948238913503</t>
+        </is>
+      </c>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>-36.78578020802211,175.07037738597086</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>-36.78604580253362,175.0712194126178</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>-36.78612710732786,175.07211837402528</t>
+        </is>
+      </c>
+      <c r="I376" t="inlineStr">
+        <is>
+          <t>-36.78635813277609,175.07295217991003</t>
+        </is>
+      </c>
+      <c r="J376" t="inlineStr">
+        <is>
+          <t>-36.78640464549732,175.07382545999647</t>
+        </is>
+      </c>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>-36.78661470471508,175.07470390128688</t>
+        </is>
+      </c>
+      <c r="L376" t="inlineStr">
+        <is>
+          <t>-36.786688252972105,175.07560676381132</t>
+        </is>
+      </c>
+      <c r="M376" t="inlineStr">
+        <is>
+          <t>-36.78672298604503,175.0765127309742</t>
+        </is>
+      </c>
+      <c r="N376" t="inlineStr">
+        <is>
+          <t>-36.78691844797236,175.07737488712067</t>
+        </is>
+      </c>
+      <c r="O376" t="inlineStr">
+        <is>
+          <t>-36.78697680448428,175.07825240834313</t>
+        </is>
+      </c>
+      <c r="P376" t="inlineStr">
+        <is>
+          <t>-36.78705059511734,175.0791360332907</t>
+        </is>
+      </c>
+      <c r="Q376" t="inlineStr">
+        <is>
+          <t>-36.787104002217255,175.08003177189642</t>
+        </is>
+      </c>
+      <c r="R376" t="inlineStr">
+        <is>
+          <t>-36.787228601157366,175.08091933332148</t>
+        </is>
+      </c>
+      <c r="S376" t="inlineStr">
+        <is>
+          <t>-36.78724715373795,175.0818154513135</t>
+        </is>
+      </c>
+      <c r="T376" t="inlineStr">
+        <is>
+          <t>-36.78733369942244,175.0827082511707</t>
+        </is>
+      </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>-36.78735092061898,175.08360672605414</t>
+        </is>
+      </c>
+      <c r="V376" t="inlineStr">
+        <is>
+          <t>-36.787382138209686,175.08450584435798</t>
+        </is>
+      </c>
+      <c r="W376" t="inlineStr">
+        <is>
+          <t>-36.787498961140614,175.08540612822236</t>
+        </is>
+      </c>
+      <c r="X376" t="inlineStr">
+        <is>
+          <t>-36.787599722802725,175.08630404571983</t>
+        </is>
+      </c>
+      <c r="Y376" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y376"/>
+  <dimension ref="A1:Y377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28318,6 +28318,87 @@
         </is>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>381.44</v>
+      </c>
+      <c r="C377" t="n">
+        <v>371.49</v>
+      </c>
+      <c r="D377" t="n">
+        <v>372.3254545454545</v>
+      </c>
+      <c r="E377" t="n">
+        <v>370.6257142857143</v>
+      </c>
+      <c r="F377" t="n">
+        <v>382.5957142857143</v>
+      </c>
+      <c r="G377" t="n">
+        <v>378.8</v>
+      </c>
+      <c r="H377" t="n">
+        <v>386.1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>385.94</v>
+      </c>
+      <c r="J377" t="n">
+        <v>384.65</v>
+      </c>
+      <c r="K377" t="n">
+        <v>376.76</v>
+      </c>
+      <c r="L377" t="n">
+        <v>378.7984615384616</v>
+      </c>
+      <c r="M377" t="n">
+        <v>386.5</v>
+      </c>
+      <c r="N377" t="n">
+        <v>385.93</v>
+      </c>
+      <c r="O377" t="n">
+        <v>387.83</v>
+      </c>
+      <c r="P377" t="n">
+        <v>390.2371428571428</v>
+      </c>
+      <c r="Q377" t="n">
+        <v>395.8954545454546</v>
+      </c>
+      <c r="R377" t="n">
+        <v>398.9554545454546</v>
+      </c>
+      <c r="S377" t="n">
+        <v>400.0071428571428</v>
+      </c>
+      <c r="T377" t="n">
+        <v>392.28</v>
+      </c>
+      <c r="U377" t="n">
+        <v>399.57</v>
+      </c>
+      <c r="V377" t="n">
+        <v>390.81</v>
+      </c>
+      <c r="W377" t="n">
+        <v>392.41</v>
+      </c>
+      <c r="X377" t="n">
+        <v>395.1</v>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28329,7 +28410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B454"/>
+  <dimension ref="A1:B455"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32877,6 +32958,16 @@
       </c>
       <c r="B454" t="n">
         <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>0.36</v>
       </c>
     </row>
   </sheetData>
@@ -33050,28 +33141,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1404060765451024</v>
+        <v>0.1380367783312639</v>
       </c>
       <c r="J2" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K2" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01485252371406964</v>
+        <v>0.01444150848474735</v>
       </c>
       <c r="M2" t="n">
-        <v>6.397471816587485</v>
+        <v>6.390174229373807</v>
       </c>
       <c r="N2" t="n">
-        <v>72.02162600633741</v>
+        <v>71.84605959983278</v>
       </c>
       <c r="O2" t="n">
-        <v>8.486555603207783</v>
+        <v>8.476205495375439</v>
       </c>
       <c r="P2" t="n">
-        <v>381.7944838221316</v>
+        <v>381.818661899555</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33128,28 +33219,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03372993906798445</v>
+        <v>0.02775637972702026</v>
       </c>
       <c r="J3" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K3" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0007927085065256856</v>
+        <v>0.0005380249492999978</v>
       </c>
       <c r="M3" t="n">
-        <v>6.994697718357235</v>
+        <v>7.004870675358188</v>
       </c>
       <c r="N3" t="n">
-        <v>78.56662645374081</v>
+        <v>78.64403940354768</v>
       </c>
       <c r="O3" t="n">
-        <v>8.863781724170604</v>
+        <v>8.868147461761541</v>
       </c>
       <c r="P3" t="n">
-        <v>380.8422818702812</v>
+        <v>380.9036408040751</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33206,28 +33297,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02759757450464318</v>
+        <v>0.02148288345645629</v>
       </c>
       <c r="J4" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006131890809260021</v>
+        <v>0.0003720901621699912</v>
       </c>
       <c r="M4" t="n">
-        <v>6.22825542720457</v>
+        <v>6.240159257758388</v>
       </c>
       <c r="N4" t="n">
-        <v>68.03600625300807</v>
+        <v>68.16309502991251</v>
       </c>
       <c r="O4" t="n">
-        <v>8.248394162078341</v>
+        <v>8.256094417453843</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1199174898256</v>
+        <v>382.1826277524549</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33284,28 +33375,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1057930970332012</v>
+        <v>0.1013886302728827</v>
       </c>
       <c r="J5" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K5" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006630589154070443</v>
+        <v>0.006117706758823949</v>
       </c>
       <c r="M5" t="n">
-        <v>7.588456089407988</v>
+        <v>7.589804345921111</v>
       </c>
       <c r="N5" t="n">
-        <v>92.10052212836395</v>
+        <v>91.99564938314315</v>
       </c>
       <c r="O5" t="n">
-        <v>9.596901694211729</v>
+        <v>9.591436252362998</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5312990908131</v>
+        <v>375.5766823682044</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33362,28 +33453,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1335431411706674</v>
+        <v>0.1350304942681355</v>
       </c>
       <c r="J6" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K6" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008031896115680559</v>
+        <v>0.008256632060183899</v>
       </c>
       <c r="M6" t="n">
-        <v>8.611133173593826</v>
+        <v>8.592635364106748</v>
       </c>
       <c r="N6" t="n">
-        <v>123.0193162489233</v>
+        <v>122.6630999134181</v>
       </c>
       <c r="O6" t="n">
-        <v>11.09140731597768</v>
+        <v>11.07533746273305</v>
       </c>
       <c r="P6" t="n">
-        <v>376.4924837037267</v>
+        <v>376.4772858386609</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33440,28 +33531,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.109922645704566</v>
+        <v>0.108869420126639</v>
       </c>
       <c r="J7" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K7" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007851609039766783</v>
+        <v>0.007748083535896511</v>
       </c>
       <c r="M7" t="n">
-        <v>7.1146068556037</v>
+        <v>7.098435789577759</v>
       </c>
       <c r="N7" t="n">
-        <v>85.50825154151667</v>
+        <v>85.25139158962911</v>
       </c>
       <c r="O7" t="n">
-        <v>9.247067185952348</v>
+        <v>9.233168014805596</v>
       </c>
       <c r="P7" t="n">
-        <v>377.7754877843275</v>
+        <v>377.7862066922098</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33518,28 +33609,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1598780746454267</v>
+        <v>0.1604386031528671</v>
       </c>
       <c r="J8" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K8" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01739984681552509</v>
+        <v>0.01762409164084244</v>
       </c>
       <c r="M8" t="n">
-        <v>7.066624052424045</v>
+        <v>7.047139008631925</v>
       </c>
       <c r="N8" t="n">
-        <v>81.10207608367872</v>
+        <v>80.84994603918098</v>
       </c>
       <c r="O8" t="n">
-        <v>9.005669108049592</v>
+        <v>8.991659804462188</v>
       </c>
       <c r="P8" t="n">
-        <v>380.9843247444009</v>
+        <v>380.978642091691</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33596,28 +33687,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08640025418341968</v>
+        <v>0.0848681212936175</v>
       </c>
       <c r="J9" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K9" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00492289263543555</v>
+        <v>0.004779215798923042</v>
       </c>
       <c r="M9" t="n">
-        <v>6.685612879611932</v>
+        <v>6.673389523424114</v>
       </c>
       <c r="N9" t="n">
-        <v>84.90998198867634</v>
+        <v>84.66149700559552</v>
       </c>
       <c r="O9" t="n">
-        <v>9.214661251976457</v>
+        <v>9.201168241348244</v>
       </c>
       <c r="P9" t="n">
-        <v>386.2859750737864</v>
+        <v>386.3013991795634</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33674,28 +33765,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1186664524266779</v>
+        <v>0.1180183602899588</v>
       </c>
       <c r="J10" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K10" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007382774873120002</v>
+        <v>0.007346766906806912</v>
       </c>
       <c r="M10" t="n">
-        <v>8.102109694469926</v>
+        <v>8.080533056148656</v>
       </c>
       <c r="N10" t="n">
-        <v>106.959292289243</v>
+        <v>106.628957123856</v>
       </c>
       <c r="O10" t="n">
-        <v>10.34211256413519</v>
+        <v>10.3261298231165</v>
       </c>
       <c r="P10" t="n">
-        <v>382.6941341901465</v>
+        <v>382.7006677500401</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33752,28 +33843,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1623365344934874</v>
+        <v>0.1597000847044431</v>
       </c>
       <c r="J11" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K11" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01736167588607707</v>
+        <v>0.01690009848933438</v>
       </c>
       <c r="M11" t="n">
-        <v>6.723242414156834</v>
+        <v>6.716322459500641</v>
       </c>
       <c r="N11" t="n">
-        <v>84.10552329482474</v>
+        <v>83.90858961774516</v>
       </c>
       <c r="O11" t="n">
-        <v>9.170906350782605</v>
+        <v>9.160163187287941</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1165203991274</v>
+        <v>377.1430571131021</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33830,28 +33921,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1769054978193062</v>
+        <v>0.1746798422123025</v>
       </c>
       <c r="J12" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K12" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02400610083826715</v>
+        <v>0.02354161755015272</v>
       </c>
       <c r="M12" t="n">
-        <v>6.415792680780142</v>
+        <v>6.408160712204848</v>
       </c>
       <c r="N12" t="n">
-        <v>72.03421856373882</v>
+        <v>71.85960533492653</v>
       </c>
       <c r="O12" t="n">
-        <v>8.487297482929346</v>
+        <v>8.477004502471763</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1342228300862</v>
+        <v>378.1566305120172</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33908,28 +33999,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2267321406076297</v>
+        <v>0.2260603253785506</v>
       </c>
       <c r="J13" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K13" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02852117505066465</v>
+        <v>0.02851560431690525</v>
       </c>
       <c r="M13" t="n">
-        <v>7.74528492115462</v>
+        <v>7.725354231660038</v>
       </c>
       <c r="N13" t="n">
-        <v>99.71900702337139</v>
+        <v>99.41850318995914</v>
       </c>
       <c r="O13" t="n">
-        <v>9.985940467646069</v>
+        <v>9.970882768840436</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8264739775938</v>
+        <v>381.8332488302356</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -33986,28 +34077,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2266367589011838</v>
+        <v>0.2225595084354578</v>
       </c>
       <c r="J14" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K14" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03479934607434454</v>
+        <v>0.03372709238662452</v>
       </c>
       <c r="M14" t="n">
-        <v>7.049894587818184</v>
+        <v>7.049298697419063</v>
       </c>
       <c r="N14" t="n">
-        <v>82.37311573815867</v>
+        <v>82.28369873471827</v>
       </c>
       <c r="O14" t="n">
-        <v>9.075963625872388</v>
+        <v>9.071036254735082</v>
       </c>
       <c r="P14" t="n">
-        <v>387.3758566693656</v>
+        <v>387.416321692759</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34064,28 +34155,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.233083681547726</v>
+        <v>0.2286150866827323</v>
       </c>
       <c r="J15" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K15" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03898421388374684</v>
+        <v>0.03768868837964012</v>
       </c>
       <c r="M15" t="n">
-        <v>6.743075126628117</v>
+        <v>6.745552447267805</v>
       </c>
       <c r="N15" t="n">
-        <v>77.28116358065699</v>
+        <v>77.23181170484092</v>
       </c>
       <c r="O15" t="n">
-        <v>8.790970571026671</v>
+        <v>8.788163158751715</v>
       </c>
       <c r="P15" t="n">
-        <v>389.6514643006801</v>
+        <v>389.6957251332451</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34136,28 +34227,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2310117617229065</v>
+        <v>0.2288535575947986</v>
       </c>
       <c r="J16" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K16" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03521526416079701</v>
+        <v>0.03476940223000435</v>
       </c>
       <c r="M16" t="n">
-        <v>7.256492886577598</v>
+        <v>7.245602730548021</v>
       </c>
       <c r="N16" t="n">
-        <v>84.67857634143817</v>
+        <v>84.46068595297925</v>
       </c>
       <c r="O16" t="n">
-        <v>9.202096301465128</v>
+        <v>9.190249504392101</v>
       </c>
       <c r="P16" t="n">
-        <v>388.040227817407</v>
+        <v>388.0614768092042</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34214,28 +34305,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.199161048096919</v>
+        <v>0.2005424989314901</v>
       </c>
       <c r="J17" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K17" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02865020283126651</v>
+        <v>0.02919478523387531</v>
       </c>
       <c r="M17" t="n">
-        <v>6.989938882734561</v>
+        <v>6.975824644826928</v>
       </c>
       <c r="N17" t="n">
-        <v>77.64655125089577</v>
+        <v>77.42950456427697</v>
       </c>
       <c r="O17" t="n">
-        <v>8.811728051347009</v>
+        <v>8.799403648218268</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2175448088825</v>
+        <v>388.2038052176907</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34292,28 +34383,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1756568902466268</v>
+        <v>0.1790541076416639</v>
       </c>
       <c r="J18" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K18" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0192101820860946</v>
+        <v>0.02003382701683609</v>
       </c>
       <c r="M18" t="n">
-        <v>7.358136759412886</v>
+        <v>7.35359961658042</v>
       </c>
       <c r="N18" t="n">
-        <v>91.08200996507054</v>
+        <v>90.9171586327795</v>
       </c>
       <c r="O18" t="n">
-        <v>9.543689536288916</v>
+        <v>9.535048958069355</v>
       </c>
       <c r="P18" t="n">
-        <v>388.2449525836203</v>
+        <v>388.2110556324283</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34364,28 +34455,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2224967288318105</v>
+        <v>0.2260709440210098</v>
       </c>
       <c r="J19" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K19" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02480145191573824</v>
+        <v>0.02570316115286908</v>
       </c>
       <c r="M19" t="n">
-        <v>7.956856042552448</v>
+        <v>7.952476896880258</v>
       </c>
       <c r="N19" t="n">
-        <v>110.3808209417752</v>
+        <v>110.1632735758701</v>
       </c>
       <c r="O19" t="n">
-        <v>10.50622772177413</v>
+        <v>10.49586935779357</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8875893987129</v>
+        <v>387.8515006265667</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34442,28 +34533,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2738551894025681</v>
+        <v>0.27222287321589</v>
       </c>
       <c r="J20" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K20" t="n">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03888225559896941</v>
+        <v>0.03865470391431192</v>
       </c>
       <c r="M20" t="n">
-        <v>7.90189099243693</v>
+        <v>7.884941236861209</v>
       </c>
       <c r="N20" t="n">
-        <v>106.7348325113285</v>
+        <v>106.4211898434189</v>
       </c>
       <c r="O20" t="n">
-        <v>10.33125512758873</v>
+        <v>10.31606464905193</v>
       </c>
       <c r="P20" t="n">
-        <v>388.002558405759</v>
+        <v>388.0188168188063</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34520,28 +34611,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1584210750712396</v>
+        <v>0.1615335465157018</v>
       </c>
       <c r="J21" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K21" t="n">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01559209732592015</v>
+        <v>0.01629313237535002</v>
       </c>
       <c r="M21" t="n">
-        <v>7.299933151207822</v>
+        <v>7.293587295793618</v>
       </c>
       <c r="N21" t="n">
-        <v>92.15336009922157</v>
+        <v>91.92930766504924</v>
       </c>
       <c r="O21" t="n">
-        <v>9.599654165605216</v>
+        <v>9.587977245751537</v>
       </c>
       <c r="P21" t="n">
-        <v>390.4168091355319</v>
+        <v>390.3864136240977</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34592,28 +34683,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.211694262596524</v>
+        <v>0.208670289798405</v>
       </c>
       <c r="J22" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K22" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02086370714547592</v>
+        <v>0.0204059867181694</v>
       </c>
       <c r="M22" t="n">
-        <v>8.199466311323647</v>
+        <v>8.189496054977939</v>
       </c>
       <c r="N22" t="n">
-        <v>121.404987781939</v>
+        <v>121.0796319267291</v>
       </c>
       <c r="O22" t="n">
-        <v>11.01839315789462</v>
+        <v>11.00361903769524</v>
       </c>
       <c r="P22" t="n">
-        <v>390.1849152732642</v>
+        <v>390.2144823396994</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34670,28 +34761,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2432783696857005</v>
+        <v>0.2411091331554821</v>
       </c>
       <c r="J23" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K23" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02590671775552655</v>
+        <v>0.02561561927462319</v>
       </c>
       <c r="M23" t="n">
-        <v>8.904013121890689</v>
+        <v>8.886391047285002</v>
       </c>
       <c r="N23" t="n">
-        <v>128.0611807403108</v>
+        <v>127.6793540837713</v>
       </c>
       <c r="O23" t="n">
-        <v>11.3164120082432</v>
+        <v>11.29952893194098</v>
       </c>
       <c r="P23" t="n">
-        <v>389.6300490054221</v>
+        <v>389.6513940342616</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34748,28 +34839,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2559185569367059</v>
+        <v>0.253877507757455</v>
       </c>
       <c r="J24" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K24" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02786628979367001</v>
+        <v>0.02760521624077139</v>
       </c>
       <c r="M24" t="n">
-        <v>9.140658344155954</v>
+        <v>9.121409165288728</v>
       </c>
       <c r="N24" t="n">
-        <v>130.9856164182759</v>
+        <v>130.5894517029862</v>
       </c>
       <c r="O24" t="n">
-        <v>11.44489477532563</v>
+        <v>11.42757418278202</v>
       </c>
       <c r="P24" t="n">
-        <v>391.7828555571662</v>
+        <v>391.8030219647141</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34807,7 +34898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y376"/>
+  <dimension ref="A1:Y377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77327,6 +77418,133 @@
         </is>
       </c>
     </row>
+    <row r="377">
+      <c r="A377" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-01 22:05:23+00:00</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>-36.785106090500044,175.0668877865323</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>-36.785386964884786,175.06772412664964</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>-36.785573908874035,175.0685914876646</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr">
+        <is>
+          <t>-36.78578282162403,175.06945093627633</t>
+        </is>
+      </c>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>-36.78586508288662,175.0703506298163</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>-36.78608399589963,175.07120749510824</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>-36.78620356551495,175.07209489592856</t>
+        </is>
+      </c>
+      <c r="I377" t="inlineStr">
+        <is>
+          <t>-36.78638286107936,175.0729465427112</t>
+        </is>
+      </c>
+      <c r="J377" t="inlineStr">
+        <is>
+          <t>-36.786490163608185,175.07381353213836</t>
+        </is>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>-36.78664348023663,175.07469927368885</t>
+        </is>
+      </c>
+      <c r="L377" t="inlineStr">
+        <is>
+          <t>-36.78674784835759,175.07559453942002</t>
+        </is>
+      </c>
+      <c r="M377" t="inlineStr">
+        <is>
+          <t>-36.78681160961941,175.07649374834148</t>
+        </is>
+      </c>
+      <c r="N377" t="inlineStr">
+        <is>
+          <t>-36.78694794484915,175.07736939181808</t>
+        </is>
+      </c>
+      <c r="O377" t="inlineStr">
+        <is>
+          <t>-36.787030600084805,175.078245698908</t>
+        </is>
+      </c>
+      <c r="P377" t="inlineStr">
+        <is>
+          <t>-36.78707118781689,175.07913415734393</t>
+        </is>
+      </c>
+      <c r="Q377" t="inlineStr">
+        <is>
+          <t>-36.78708298935214,175.0800336859587</t>
+        </is>
+      </c>
+      <c r="R377" t="inlineStr">
+        <is>
+          <t>-36.78711803565893,175.08092862856088</t>
+        </is>
+      </c>
+      <c r="S377" t="inlineStr">
+        <is>
+          <t>-36.78716306594056,175.08182172853634</t>
+        </is>
+      </c>
+      <c r="T377" t="inlineStr">
+        <is>
+          <t>-36.7872844027389,175.08271181234727</t>
+        </is>
+      </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>-36.7872706785729,175.08361252209843</t>
+        </is>
+      </c>
+      <c r="V377" t="inlineStr">
+        <is>
+          <t>-36.78740138393789,175.08450434750569</t>
+        </is>
+      </c>
+      <c r="W377" t="inlineStr">
+        <is>
+          <t>-36.78744576671886,175.08541242106926</t>
+        </is>
+      </c>
+      <c r="X377" t="inlineStr">
+        <is>
+          <t>-36.787520576801995,175.086316190163</t>
+        </is>
+      </c>
+      <c r="Y377" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y377"/>
+  <dimension ref="A1:Y380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28399,6 +28399,245 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>382.51</v>
+      </c>
+      <c r="C378" t="n">
+        <v>381.87</v>
+      </c>
+      <c r="D378" t="n">
+        <v>379.8645454545455</v>
+      </c>
+      <c r="E378" t="n">
+        <v>375.9842857142857</v>
+      </c>
+      <c r="F378" t="n">
+        <v>375.0642857142857</v>
+      </c>
+      <c r="G378" t="n">
+        <v>385.66</v>
+      </c>
+      <c r="H378" t="n">
+        <v>383.38</v>
+      </c>
+      <c r="I378" t="n">
+        <v>388.7</v>
+      </c>
+      <c r="J378" t="n">
+        <v>377.83</v>
+      </c>
+      <c r="K378" t="n">
+        <v>380.31</v>
+      </c>
+      <c r="L378" t="n">
+        <v>376.8015384615384</v>
+      </c>
+      <c r="M378" t="n">
+        <v>378.6</v>
+      </c>
+      <c r="N378" t="n">
+        <v>388.33</v>
+      </c>
+      <c r="O378" t="n">
+        <v>385</v>
+      </c>
+      <c r="P378" t="n">
+        <v>388.6628571428572</v>
+      </c>
+      <c r="Q378" t="n">
+        <v>386.4045454545454</v>
+      </c>
+      <c r="R378" t="n">
+        <v>387.6745454545455</v>
+      </c>
+      <c r="S378" t="n">
+        <v>385.6128571428572</v>
+      </c>
+      <c r="T378" t="n">
+        <v>386.78</v>
+      </c>
+      <c r="U378" t="n">
+        <v>379.11</v>
+      </c>
+      <c r="V378" t="n">
+        <v>378.23</v>
+      </c>
+      <c r="W378" t="n">
+        <v>380.19</v>
+      </c>
+      <c r="X378" t="n">
+        <v>384.4</v>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>387.31</v>
+      </c>
+      <c r="C379" t="n">
+        <v>381.1911111111111</v>
+      </c>
+      <c r="D379" t="n">
+        <v>381.550909090909</v>
+      </c>
+      <c r="E379" t="n">
+        <v>387.7957142857143</v>
+      </c>
+      <c r="F379" t="n">
+        <v>388.3257142857143</v>
+      </c>
+      <c r="G379" t="n">
+        <v>385.0011111111111</v>
+      </c>
+      <c r="H379" t="n">
+        <v>391.99</v>
+      </c>
+      <c r="I379" t="n">
+        <v>394.94</v>
+      </c>
+      <c r="J379" t="n">
+        <v>390.81</v>
+      </c>
+      <c r="K379" t="n">
+        <v>388.7033333333333</v>
+      </c>
+      <c r="L379" t="n">
+        <v>380.2023076923077</v>
+      </c>
+      <c r="M379" t="n">
+        <v>391.19</v>
+      </c>
+      <c r="N379" t="n">
+        <v>398.0233333333333</v>
+      </c>
+      <c r="O379" t="n">
+        <v>389.46</v>
+      </c>
+      <c r="P379" t="n">
+        <v>391.9138095238095</v>
+      </c>
+      <c r="Q379" t="n">
+        <v>392.990909090909</v>
+      </c>
+      <c r="R379" t="n">
+        <v>388.0609090909091</v>
+      </c>
+      <c r="S379" t="n">
+        <v>380.5238095238095</v>
+      </c>
+      <c r="T379" t="n">
+        <v>382.69</v>
+      </c>
+      <c r="U379" t="n">
+        <v>382.91</v>
+      </c>
+      <c r="V379" t="n">
+        <v>382.42</v>
+      </c>
+      <c r="W379" t="n">
+        <v>377.61</v>
+      </c>
+      <c r="X379" t="n">
+        <v>372.53</v>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>374.11</v>
+      </c>
+      <c r="C380" t="n">
+        <v>369.75</v>
+      </c>
+      <c r="D380" t="n">
+        <v>375.0663636363636</v>
+      </c>
+      <c r="E380" t="n">
+        <v>359.1757142857143</v>
+      </c>
+      <c r="F380" t="n">
+        <v>353.9357142857143</v>
+      </c>
+      <c r="G380" t="n">
+        <v>368</v>
+      </c>
+      <c r="H380" t="n">
+        <v>368.28</v>
+      </c>
+      <c r="I380" t="n">
+        <v>376.28</v>
+      </c>
+      <c r="J380" t="n">
+        <v>366.81</v>
+      </c>
+      <c r="K380" t="n">
+        <v>371.2</v>
+      </c>
+      <c r="L380" t="n">
+        <v>374.5438461538461</v>
+      </c>
+      <c r="M380" t="n">
+        <v>368.88</v>
+      </c>
+      <c r="N380" t="n">
+        <v>378.37</v>
+      </c>
+      <c r="O380" t="n">
+        <v>379.56</v>
+      </c>
+      <c r="P380" t="n">
+        <v>373.9171428571429</v>
+      </c>
+      <c r="Q380" t="n">
+        <v>373.5863636363636</v>
+      </c>
+      <c r="R380" t="n">
+        <v>377.2163636363636</v>
+      </c>
+      <c r="S380" t="n">
+        <v>373.8671428571428</v>
+      </c>
+      <c r="T380" t="n">
+        <v>362.29</v>
+      </c>
+      <c r="U380" t="n">
+        <v>355.95</v>
+      </c>
+      <c r="V380" t="inlineStr"/>
+      <c r="W380" t="inlineStr"/>
+      <c r="X380" t="n">
+        <v>336.83</v>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -28410,7 +28649,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B455"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32968,6 +33207,36 @@
       </c>
       <c r="B455" t="n">
         <v>0.36</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>-0.9</v>
       </c>
     </row>
   </sheetData>
@@ -33141,28 +33410,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1380367783312639</v>
+        <v>0.1308543391803682</v>
       </c>
       <c r="J2" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K2" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01444150848474735</v>
+        <v>0.01316009810375796</v>
       </c>
       <c r="M2" t="n">
-        <v>6.390174229373807</v>
+        <v>6.381760174069485</v>
       </c>
       <c r="N2" t="n">
-        <v>71.84605959983278</v>
+        <v>71.60761841469925</v>
       </c>
       <c r="O2" t="n">
-        <v>8.476205495375439</v>
+        <v>8.462128480157888</v>
       </c>
       <c r="P2" t="n">
-        <v>381.818661899555</v>
+        <v>381.8924030952695</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33219,28 +33488,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02775637972702026</v>
+        <v>0.0208109812257275</v>
       </c>
       <c r="J3" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K3" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0005380249492999978</v>
+        <v>0.0003064193125108527</v>
       </c>
       <c r="M3" t="n">
-        <v>7.004870675358188</v>
+        <v>6.979468453492746</v>
       </c>
       <c r="N3" t="n">
-        <v>78.64403940354768</v>
+        <v>78.35069633853874</v>
       </c>
       <c r="O3" t="n">
-        <v>8.868147461761541</v>
+        <v>8.851592870130141</v>
       </c>
       <c r="P3" t="n">
-        <v>380.9036408040751</v>
+        <v>380.9754427182266</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33297,28 +33566,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02148288345645629</v>
+        <v>0.01475877929125931</v>
       </c>
       <c r="J4" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K4" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003720901621699912</v>
+        <v>0.000178343143025228</v>
       </c>
       <c r="M4" t="n">
-        <v>6.240159257758388</v>
+        <v>6.217254973005705</v>
       </c>
       <c r="N4" t="n">
-        <v>68.16309502991251</v>
+        <v>67.74637083996977</v>
       </c>
       <c r="O4" t="n">
-        <v>8.256094417453843</v>
+        <v>8.230818357852989</v>
       </c>
       <c r="P4" t="n">
-        <v>382.1826277524549</v>
+        <v>382.2519870901443</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33375,28 +33644,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1013886302728827</v>
+        <v>0.0947421912325138</v>
       </c>
       <c r="J5" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>0.006117706758823949</v>
+        <v>0.00536012731106561</v>
       </c>
       <c r="M5" t="n">
-        <v>7.589804345921111</v>
+        <v>7.616663443450346</v>
       </c>
       <c r="N5" t="n">
-        <v>91.99564938314315</v>
+        <v>92.55121794633754</v>
       </c>
       <c r="O5" t="n">
-        <v>9.591436252362998</v>
+        <v>9.620354356588823</v>
       </c>
       <c r="P5" t="n">
-        <v>375.5766823682044</v>
+        <v>375.6456490973582</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33453,28 +33722,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1350304942681355</v>
+        <v>0.1224264001006689</v>
       </c>
       <c r="J6" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K6" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L6" t="n">
-        <v>0.008256632060183899</v>
+        <v>0.006786680370127085</v>
       </c>
       <c r="M6" t="n">
-        <v>8.592635364106748</v>
+        <v>8.634892692281175</v>
       </c>
       <c r="N6" t="n">
-        <v>122.6630999134181</v>
+        <v>123.8804303981089</v>
       </c>
       <c r="O6" t="n">
-        <v>11.07533746273305</v>
+        <v>11.13015859716783</v>
       </c>
       <c r="P6" t="n">
-        <v>376.4772858386609</v>
+        <v>376.6069330119894</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33531,28 +33800,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.108869420126639</v>
+        <v>0.1070298230836451</v>
       </c>
       <c r="J7" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K7" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007748083535896511</v>
+        <v>0.00756880453480524</v>
       </c>
       <c r="M7" t="n">
-        <v>7.098435789577759</v>
+        <v>7.101599726911513</v>
       </c>
       <c r="N7" t="n">
-        <v>85.25139158962911</v>
+        <v>85.09077493949769</v>
       </c>
       <c r="O7" t="n">
-        <v>9.233168014805596</v>
+        <v>9.22446610593251</v>
       </c>
       <c r="P7" t="n">
-        <v>377.7862066922098</v>
+        <v>377.8051487213996</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33609,28 +33878,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1604386031528671</v>
+        <v>0.1536719439732212</v>
       </c>
       <c r="J8" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K8" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01762409164084244</v>
+        <v>0.01627623855981952</v>
       </c>
       <c r="M8" t="n">
-        <v>7.047139008631925</v>
+        <v>7.063939469787028</v>
       </c>
       <c r="N8" t="n">
-        <v>80.84994603918098</v>
+        <v>81.13357584397029</v>
       </c>
       <c r="O8" t="n">
-        <v>8.991659804462188</v>
+        <v>9.007417823325966</v>
       </c>
       <c r="P8" t="n">
-        <v>380.978642091691</v>
+        <v>381.0477239619206</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33687,28 +33956,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0848681212936175</v>
+        <v>0.08158527659922143</v>
       </c>
       <c r="J9" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004779215798923042</v>
+        <v>0.004469533707725293</v>
       </c>
       <c r="M9" t="n">
-        <v>6.673389523424114</v>
+        <v>6.671518296350494</v>
       </c>
       <c r="N9" t="n">
-        <v>84.66149700559552</v>
+        <v>84.46262764007744</v>
       </c>
       <c r="O9" t="n">
-        <v>9.201168241348244</v>
+        <v>9.190355142217163</v>
       </c>
       <c r="P9" t="n">
-        <v>386.3013991795634</v>
+        <v>386.3347104060728</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -33765,28 +34034,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1180183602899588</v>
+        <v>0.1056034686851138</v>
       </c>
       <c r="J10" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K10" t="n">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="L10" t="n">
-        <v>0.007346766906806912</v>
+        <v>0.005921528736927417</v>
       </c>
       <c r="M10" t="n">
-        <v>8.080533056148656</v>
+        <v>8.10916521235831</v>
       </c>
       <c r="N10" t="n">
-        <v>106.628957123856</v>
+        <v>107.0130556350196</v>
       </c>
       <c r="O10" t="n">
-        <v>10.3261298231165</v>
+        <v>10.34471148147785</v>
       </c>
       <c r="P10" t="n">
-        <v>382.7006677500401</v>
+        <v>382.8265941198298</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -33843,28 +34112,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1597000847044431</v>
+        <v>0.1575891450251891</v>
       </c>
       <c r="J11" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K11" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01690009848933438</v>
+        <v>0.01666563870911864</v>
       </c>
       <c r="M11" t="n">
-        <v>6.716322459500641</v>
+        <v>6.711059902070315</v>
       </c>
       <c r="N11" t="n">
-        <v>83.90858961774516</v>
+        <v>83.61952342813038</v>
       </c>
       <c r="O11" t="n">
-        <v>9.160163187287941</v>
+        <v>9.144371133551523</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1430571131021</v>
+        <v>377.1644800414621</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -33921,28 +34190,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1746798422123025</v>
+        <v>0.1654352594998214</v>
       </c>
       <c r="J12" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K12" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02354161755015272</v>
+        <v>0.02144492175171109</v>
       </c>
       <c r="M12" t="n">
-        <v>6.408160712204848</v>
+        <v>6.399381004556159</v>
       </c>
       <c r="N12" t="n">
-        <v>71.85960533492653</v>
+        <v>71.52382583439601</v>
       </c>
       <c r="O12" t="n">
-        <v>8.477004502471763</v>
+        <v>8.457175996418426</v>
       </c>
       <c r="P12" t="n">
-        <v>378.1566305120172</v>
+        <v>378.2502386939831</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -33999,28 +34268,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2260603253785506</v>
+        <v>0.2126715320812152</v>
       </c>
       <c r="J13" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K13" t="n">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02851560431690525</v>
+        <v>0.02541195342099101</v>
       </c>
       <c r="M13" t="n">
-        <v>7.725354231660038</v>
+        <v>7.751559998277391</v>
       </c>
       <c r="N13" t="n">
-        <v>99.41850318995914</v>
+        <v>99.86407554943027</v>
       </c>
       <c r="O13" t="n">
-        <v>9.970882768840436</v>
+        <v>9.993201466468605</v>
       </c>
       <c r="P13" t="n">
-        <v>381.8332488302356</v>
+        <v>381.969101461012</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34077,28 +34346,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2225595084354578</v>
+        <v>0.2143775201897604</v>
       </c>
       <c r="J14" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K14" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L14" t="n">
-        <v>0.03372709238662452</v>
+        <v>0.0316055966724027</v>
       </c>
       <c r="M14" t="n">
-        <v>7.049298697419063</v>
+        <v>7.056338211922403</v>
       </c>
       <c r="N14" t="n">
-        <v>82.28369873471827</v>
+        <v>82.34054808680482</v>
       </c>
       <c r="O14" t="n">
-        <v>9.071036254735082</v>
+        <v>9.07416927805542</v>
       </c>
       <c r="P14" t="n">
-        <v>387.416321692759</v>
+        <v>387.4980524623626</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34155,28 +34424,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2286150866827323</v>
+        <v>0.2102221150505627</v>
       </c>
       <c r="J15" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K15" t="n">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03768868837964012</v>
+        <v>0.03211864978517565</v>
       </c>
       <c r="M15" t="n">
-        <v>6.745552447267805</v>
+        <v>6.779921366609031</v>
       </c>
       <c r="N15" t="n">
-        <v>77.23181170484092</v>
+        <v>77.75340817741478</v>
       </c>
       <c r="O15" t="n">
-        <v>8.788163158751715</v>
+        <v>8.817789302167226</v>
       </c>
       <c r="P15" t="n">
-        <v>389.6957251332451</v>
+        <v>389.878970552391</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34227,28 +34496,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.2288535575947986</v>
+        <v>0.213432948569236</v>
       </c>
       <c r="J16" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K16" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03476940223000435</v>
+        <v>0.03045388850774355</v>
       </c>
       <c r="M16" t="n">
-        <v>7.245602730548021</v>
+        <v>7.261000329659713</v>
       </c>
       <c r="N16" t="n">
-        <v>84.46068595297925</v>
+        <v>85.0051654926944</v>
       </c>
       <c r="O16" t="n">
-        <v>9.190249504392101</v>
+        <v>9.219824591210747</v>
       </c>
       <c r="P16" t="n">
-        <v>388.0614768092042</v>
+        <v>388.2142507379578</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34305,28 +34574,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2005424989314901</v>
+        <v>0.1857289004220442</v>
       </c>
       <c r="J17" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K17" t="n">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02919478523387531</v>
+        <v>0.02515455285215551</v>
       </c>
       <c r="M17" t="n">
-        <v>6.975824644826928</v>
+        <v>6.998104143298701</v>
       </c>
       <c r="N17" t="n">
-        <v>77.42950456427697</v>
+        <v>78.04603558253937</v>
       </c>
       <c r="O17" t="n">
-        <v>8.799403648218268</v>
+        <v>8.834366733532143</v>
       </c>
       <c r="P17" t="n">
-        <v>388.2038052176907</v>
+        <v>388.3520632938644</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34383,28 +34652,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1790541076416639</v>
+        <v>0.1650839539445035</v>
       </c>
       <c r="J18" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K18" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L18" t="n">
-        <v>0.02003382701683609</v>
+        <v>0.01720782785578168</v>
       </c>
       <c r="M18" t="n">
-        <v>7.35359961658042</v>
+        <v>7.366256871653155</v>
       </c>
       <c r="N18" t="n">
-        <v>90.9171586327795</v>
+        <v>90.96942884692992</v>
       </c>
       <c r="O18" t="n">
-        <v>9.535048958069355</v>
+        <v>9.5377895157594</v>
       </c>
       <c r="P18" t="n">
-        <v>388.2110556324283</v>
+        <v>388.3513255405293</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34455,28 +34724,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2260709440210098</v>
+        <v>0.2032077347516154</v>
       </c>
       <c r="J19" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K19" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02570316115286908</v>
+        <v>0.02087717982711523</v>
       </c>
       <c r="M19" t="n">
-        <v>7.952476896880258</v>
+        <v>8.002363523730512</v>
       </c>
       <c r="N19" t="n">
-        <v>110.1632735758701</v>
+        <v>111.0519469407768</v>
       </c>
       <c r="O19" t="n">
-        <v>10.49586935779357</v>
+        <v>10.5381187571965</v>
       </c>
       <c r="P19" t="n">
-        <v>387.8515006265667</v>
+        <v>388.0837336111776</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34533,28 +34802,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.27222287321589</v>
+        <v>0.2418221350258802</v>
       </c>
       <c r="J20" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K20" t="n">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03865470391431192</v>
+        <v>0.03018811575827762</v>
       </c>
       <c r="M20" t="n">
-        <v>7.884941236861209</v>
+        <v>7.960433249800809</v>
       </c>
       <c r="N20" t="n">
-        <v>106.4211898434189</v>
+        <v>109.4278590186372</v>
       </c>
       <c r="O20" t="n">
-        <v>10.31606464905193</v>
+        <v>10.46077717087202</v>
       </c>
       <c r="P20" t="n">
-        <v>388.0188168188063</v>
+        <v>388.3235081034548</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34611,28 +34880,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1615335465157018</v>
+        <v>0.1216665597910388</v>
       </c>
       <c r="J21" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K21" t="n">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01629313237535002</v>
+        <v>0.008908022474583333</v>
       </c>
       <c r="M21" t="n">
-        <v>7.293587295793618</v>
+        <v>7.427082475737936</v>
       </c>
       <c r="N21" t="n">
-        <v>91.92930766504924</v>
+        <v>97.06746065363352</v>
       </c>
       <c r="O21" t="n">
-        <v>9.587977245751537</v>
+        <v>9.852282002340042</v>
       </c>
       <c r="P21" t="n">
-        <v>390.3864136240977</v>
+        <v>390.778072794181</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34683,28 +34952,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.208670289798405</v>
+        <v>0.1898470780442826</v>
       </c>
       <c r="J22" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K22" t="n">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0204059867181694</v>
+        <v>0.01696216623262248</v>
       </c>
       <c r="M22" t="n">
-        <v>8.189496054977939</v>
+        <v>8.24425890533132</v>
       </c>
       <c r="N22" t="n">
-        <v>121.0796319267291</v>
+        <v>121.8288493667212</v>
       </c>
       <c r="O22" t="n">
-        <v>11.00361903769524</v>
+        <v>11.03761067290929</v>
       </c>
       <c r="P22" t="n">
-        <v>390.2144823396994</v>
+        <v>390.3994218161207</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -34761,28 +35030,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2411091331554821</v>
+        <v>0.2204211219754746</v>
       </c>
       <c r="J23" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K23" t="n">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02561561927462319</v>
+        <v>0.02146868415091985</v>
       </c>
       <c r="M23" t="n">
-        <v>8.886391047285002</v>
+        <v>8.93909279158782</v>
       </c>
       <c r="N23" t="n">
-        <v>127.6793540837713</v>
+        <v>128.7181865292218</v>
       </c>
       <c r="O23" t="n">
-        <v>11.29952893194098</v>
+        <v>11.34540376228285</v>
       </c>
       <c r="P23" t="n">
-        <v>389.6513940342616</v>
+        <v>389.8559820358197</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -34839,28 +35108,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.253877507757455</v>
+        <v>0.1927119187589866</v>
       </c>
       <c r="J24" t="n">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K24" t="n">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L24" t="n">
-        <v>0.02760521624077139</v>
+        <v>0.01473853844547635</v>
       </c>
       <c r="M24" t="n">
-        <v>9.121409165288728</v>
+        <v>9.370767606443495</v>
       </c>
       <c r="N24" t="n">
-        <v>130.5894517029862</v>
+        <v>144.2130062077384</v>
       </c>
       <c r="O24" t="n">
-        <v>11.42757418278202</v>
+        <v>12.00887197898864</v>
       </c>
       <c r="P24" t="n">
-        <v>391.8030219647141</v>
+        <v>392.4110140430033</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -34898,7 +35167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y377"/>
+  <dimension ref="A1:Y380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77545,6 +77814,379 @@
         </is>
       </c>
     </row>
+    <row r="378">
+      <c r="A378" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>-36.785096771932935,175.0668908640497</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>-36.78529656596911,175.06775398087083</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>-36.78550825121861,175.06861317062575</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr">
+        <is>
+          <t>-36.78573608948182,175.06946604251772</t>
+        </is>
+      </c>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>-36.78593086651802,175.07032989198865</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>-36.78602404018044,175.0712262031389</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>-36.78622736028173,175.0720875892352</t>
+        </is>
+      </c>
+      <c r="I378" t="inlineStr">
+        <is>
+          <t>-36.78635839867182,175.07295211929502</t>
+        </is>
+      </c>
+      <c r="J378" t="inlineStr">
+        <is>
+          <t>-36.786551235179616,175.07380501401056</t>
+        </is>
+      </c>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>-36.78661175567094,175.07470437554366</t>
+        </is>
+      </c>
+      <c r="L378" t="inlineStr">
+        <is>
+          <t>-36.78676560250249,175.07559089763117</t>
+        </is>
+      </c>
+      <c r="M378" t="inlineStr">
+        <is>
+          <t>-36.78688176254698,175.07647872198126</t>
+        </is>
+      </c>
+      <c r="N378" t="inlineStr">
+        <is>
+          <t>-36.78692655738564,175.07737337632787</t>
+        </is>
+      </c>
+      <c r="O378" t="inlineStr">
+        <is>
+          <t>-36.7870559736762,175.0782425342885</t>
+        </is>
+      </c>
+      <c r="P378" t="inlineStr">
+        <is>
+          <t>-36.78708533566905,175.07913286850726</t>
+        </is>
+      </c>
+      <c r="Q378" t="inlineStr">
+        <is>
+          <t>-36.78716828263001,175.08002591658763</t>
+        </is>
+      </c>
+      <c r="R378" t="inlineStr">
+        <is>
+          <t>-36.78721945547495,175.08092010219954</t>
+        </is>
+      </c>
+      <c r="S378" t="inlineStr">
+        <is>
+          <t>-36.78729253853282,175.08181206329755</t>
+        </is>
+      </c>
+      <c r="T378" t="inlineStr">
+        <is>
+          <t>-36.78733387933735,175.0827082381737</t>
+        </is>
+      </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>-36.78745473151581,175.08359922757234</t>
+        </is>
+      </c>
+      <c r="V378" t="inlineStr">
+        <is>
+          <t>-36.787514520040006,175.0844955482421</t>
+        </is>
+      </c>
+      <c r="W378" t="inlineStr">
+        <is>
+          <t>-36.78755538490277,175.08539945334007</t>
+        </is>
+      </c>
+      <c r="X378" t="inlineStr">
+        <is>
+          <t>-36.78761626744675,175.08630150704823</t>
+        </is>
+      </c>
+      <c r="Y378" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>-36.7850549690142,175.06690466972674</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>-36.78530247837965,175.06775202830067</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>-36.78549356474148,175.06861802072268</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr">
+        <is>
+          <t>-36.785633081917396,175.06949933981906</t>
+        </is>
+      </c>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>-36.785815033919086,175.0703664073789</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>-36.786029798804044,175.07122440627222</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>-36.78615203934584,175.07211071812893</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>-36.7863030923582,175.07296472721183</t>
+        </is>
+      </c>
+      <c r="J379" t="inlineStr">
+        <is>
+          <t>-36.786435002188156,175.0738212259216</t>
+        </is>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>-36.78653674866866,175.07471643794293</t>
+        </is>
+      </c>
+      <c r="L379" t="inlineStr">
+        <is>
+          <t>-36.78673536711159,175.07559709961353</t>
+        </is>
+      </c>
+      <c r="M379" t="inlineStr">
+        <is>
+          <t>-36.78676996186789,175.07650266904247</t>
+        </is>
+      </c>
+      <c r="N379" t="inlineStr">
+        <is>
+          <t>-36.78684017579553,175.07738946930047</t>
+        </is>
+      </c>
+      <c r="O379" t="inlineStr">
+        <is>
+          <t>-36.78701598561339,175.07824752163864</t>
+        </is>
+      </c>
+      <c r="P379" t="inlineStr">
+        <is>
+          <t>-36.78705611988359,175.0791355299975</t>
+        </is>
+      </c>
+      <c r="Q379" t="inlineStr">
+        <is>
+          <t>-36.78710909203644,175.0800313082646</t>
+        </is>
+      </c>
+      <c r="R379" t="inlineStr">
+        <is>
+          <t>-36.787215981913704,175.080920394222</t>
+        </is>
+      </c>
+      <c r="S379" t="inlineStr">
+        <is>
+          <t>-36.78733831309865,175.0818086461821</t>
+        </is>
+      </c>
+      <c r="T379" t="inlineStr">
+        <is>
+          <t>-36.78737067193488,175.08270558028627</t>
+        </is>
+      </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>-36.78742054768513,175.0836016967446</t>
+        </is>
+      </c>
+      <c r="V379" t="inlineStr">
+        <is>
+          <t>-36.78747683798395,175.0844984790004</t>
+        </is>
+      </c>
+      <c r="W379" t="inlineStr">
+        <is>
+          <t>-36.78757852851251,175.0853967154688</t>
+        </is>
+      </c>
+      <c r="X379" t="inlineStr">
+        <is>
+          <t>-36.78772242145863,175.08628521836056</t>
+        </is>
+      </c>
+      <c r="Y379" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>-36.78516992703732,175.06686670408124</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>-36.7854021184596,175.0677191221784</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>-36.78555003840161,175.0685993707179</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr">
+        <is>
+          <t>-36.78588267715549,175.0694186577534</t>
+        </is>
+      </c>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>-36.78611541504206,175.0702717141818</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>-36.78617838682251,175.07117804217717</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>-36.7863594562224,175.07204702626564</t>
+        </is>
+      </c>
+      <c r="I380" t="inlineStr">
+        <is>
+          <t>-36.78646847950385,175.0729270246429</t>
+        </is>
+      </c>
+      <c r="J380" t="inlineStr">
+        <is>
+          <t>-36.78664991680807,175.0737912500912</t>
+        </is>
+      </c>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>-36.78669316716153,175.074691283171</t>
+        </is>
+      </c>
+      <c r="L380" t="inlineStr">
+        <is>
+          <t>-36.786785675081454,175.07558678027564</t>
+        </is>
+      </c>
+      <c r="M380" t="inlineStr">
+        <is>
+          <t>-36.78696807728575,175.07646023381858</t>
+        </is>
+      </c>
+      <c r="N380" t="inlineStr">
+        <is>
+          <t>-36.787015315358296,175.0773568405996</t>
+        </is>
+      </c>
+      <c r="O380" t="inlineStr">
+        <is>
+          <t>-36.78710474835332,175.07823645105753</t>
+        </is>
+      </c>
+      <c r="P380" t="inlineStr">
+        <is>
+          <t>-36.787217853026796,175.0791207964647</t>
+        </is>
+      </c>
+      <c r="Q380" t="inlineStr">
+        <is>
+          <t>-36.787283477572494,175.0800154234514</t>
+        </is>
+      </c>
+      <c r="R380" t="inlineStr">
+        <is>
+          <t>-36.78731347864738,175.08091219765942</t>
+        </is>
+      </c>
+      <c r="S380" t="inlineStr">
+        <is>
+          <t>-36.78739818796071,175.08180417646176</t>
+        </is>
+      </c>
+      <c r="T380" t="inlineStr">
+        <is>
+          <t>-36.787554185132414,175.08269232331645</t>
+        </is>
+      </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>-36.78766307296443,175.08358417858557</t>
+        </is>
+      </c>
+      <c r="V380" t="inlineStr"/>
+      <c r="W380" t="inlineStr"/>
+      <c r="X380" t="inlineStr">
+        <is>
+          <t>-36.78804168835318,175.08623622856564</t>
+        </is>
+      </c>
+      <c r="Y380" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y380"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28628,13 +28628,96 @@
         <v>355.95</v>
       </c>
       <c r="V380" t="inlineStr"/>
-      <c r="W380" t="inlineStr"/>
+      <c r="W380" t="n">
+        <v>334.87</v>
+      </c>
       <c r="X380" t="n">
         <v>336.83</v>
       </c>
       <c r="Y380" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
+        <v>389.86</v>
+      </c>
+      <c r="C381" t="n">
+        <v>380.0911111111111</v>
+      </c>
+      <c r="D381" t="n">
+        <v>383.26</v>
+      </c>
+      <c r="E381" t="n">
+        <v>380.47</v>
+      </c>
+      <c r="F381" t="n">
+        <v>392.92</v>
+      </c>
+      <c r="G381" t="n">
+        <v>384.2311111111111</v>
+      </c>
+      <c r="H381" t="n">
+        <v>393.74</v>
+      </c>
+      <c r="I381" t="n">
+        <v>389.6</v>
+      </c>
+      <c r="J381" t="n">
+        <v>391.33</v>
+      </c>
+      <c r="K381" t="n">
+        <v>378.7533333333333</v>
+      </c>
+      <c r="L381" t="n">
+        <v>382.9461538461539</v>
+      </c>
+      <c r="M381" t="n">
+        <v>394.38</v>
+      </c>
+      <c r="N381" t="n">
+        <v>386.1633333333333</v>
+      </c>
+      <c r="O381" t="n">
+        <v>388.94</v>
+      </c>
+      <c r="P381" t="n">
+        <v>392.3566666666667</v>
+      </c>
+      <c r="Q381" t="n">
+        <v>390.96</v>
+      </c>
+      <c r="R381" t="n">
+        <v>380.76</v>
+      </c>
+      <c r="S381" t="n">
+        <v>384.3566666666667</v>
+      </c>
+      <c r="T381" t="n">
+        <v>383.32</v>
+      </c>
+      <c r="U381" t="n">
+        <v>384.33</v>
+      </c>
+      <c r="V381" t="n">
+        <v>386.65</v>
+      </c>
+      <c r="W381" t="n">
+        <v>373.97</v>
+      </c>
+      <c r="X381" t="n">
+        <v>375.65</v>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -28649,7 +28732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B459"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33237,6 +33320,16 @@
       </c>
       <c r="B458" t="n">
         <v>-0.9</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>0.77</v>
       </c>
     </row>
   </sheetData>
@@ -33410,28 +33503,28 @@
         <v>0.0506</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1308543391803682</v>
+        <v>0.1335056367945378</v>
       </c>
       <c r="J2" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01316009810375796</v>
+        <v>0.01376368638288339</v>
       </c>
       <c r="M2" t="n">
-        <v>6.381760174069485</v>
+        <v>6.375520149028342</v>
       </c>
       <c r="N2" t="n">
-        <v>71.60761841469925</v>
+        <v>71.4496272308443</v>
       </c>
       <c r="O2" t="n">
-        <v>8.462128480157888</v>
+        <v>8.452788133559499</v>
       </c>
       <c r="P2" t="n">
-        <v>381.8924030952695</v>
+        <v>381.8650281278001</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -33488,28 +33581,28 @@
         <v>0.0454</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0208109812257275</v>
+        <v>0.0199873668311214</v>
       </c>
       <c r="J3" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K3" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003064193125108527</v>
+        <v>0.0002843568039642141</v>
       </c>
       <c r="M3" t="n">
-        <v>6.979468453492746</v>
+        <v>6.962562523215089</v>
       </c>
       <c r="N3" t="n">
-        <v>78.35069633853874</v>
+        <v>78.11799555520462</v>
       </c>
       <c r="O3" t="n">
-        <v>8.851592870130141</v>
+        <v>8.838438524717169</v>
       </c>
       <c r="P3" t="n">
-        <v>380.9754427182266</v>
+        <v>380.9840027175736</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -33566,28 +33659,28 @@
         <v>0.0582</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01475877929125931</v>
+        <v>0.01511540847469148</v>
       </c>
       <c r="J4" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K4" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000178343143025228</v>
+        <v>0.0001882029660437157</v>
       </c>
       <c r="M4" t="n">
-        <v>6.217254973005705</v>
+        <v>6.200358745530608</v>
       </c>
       <c r="N4" t="n">
-        <v>67.74637083996977</v>
+        <v>67.54223828207853</v>
       </c>
       <c r="O4" t="n">
-        <v>8.230818357852989</v>
+        <v>8.2184085005601</v>
       </c>
       <c r="P4" t="n">
-        <v>382.2519870901443</v>
+        <v>382.24828651274</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -33644,28 +33737,28 @@
         <v>0.037</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0947421912325138</v>
+        <v>0.09607346037032391</v>
       </c>
       <c r="J5" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00536012731106561</v>
+        <v>0.005542743892351765</v>
       </c>
       <c r="M5" t="n">
-        <v>7.616663443450346</v>
+        <v>7.600130099294405</v>
       </c>
       <c r="N5" t="n">
-        <v>92.55121794633754</v>
+        <v>92.28643664314085</v>
       </c>
       <c r="O5" t="n">
-        <v>9.620354356588823</v>
+        <v>9.606582984763149</v>
       </c>
       <c r="P5" t="n">
-        <v>375.6456490973582</v>
+        <v>375.6317668524592</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -33722,28 +33815,28 @@
         <v>0.0402</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1224264001006689</v>
+        <v>0.1297280706254247</v>
       </c>
       <c r="J6" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K6" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L6" t="n">
-        <v>0.006786680370127085</v>
+        <v>0.007626613189818943</v>
       </c>
       <c r="M6" t="n">
-        <v>8.634892692281175</v>
+        <v>8.647361344142029</v>
       </c>
       <c r="N6" t="n">
-        <v>123.8804303981089</v>
+        <v>124.020946359869</v>
       </c>
       <c r="O6" t="n">
-        <v>11.13015859716783</v>
+        <v>11.1364692052674</v>
       </c>
       <c r="P6" t="n">
-        <v>376.6069330119894</v>
+        <v>376.5314030619334</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -33800,28 +33893,28 @@
         <v>0.0489</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1070298230836451</v>
+        <v>0.1090888328135489</v>
       </c>
       <c r="J7" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K7" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00756880453480524</v>
+        <v>0.007903605039982886</v>
       </c>
       <c r="M7" t="n">
-        <v>7.101599726911513</v>
+        <v>7.08983093369263</v>
       </c>
       <c r="N7" t="n">
-        <v>85.09077493949769</v>
+        <v>84.86827888180979</v>
       </c>
       <c r="O7" t="n">
-        <v>9.22446610593251</v>
+        <v>9.212398106997428</v>
       </c>
       <c r="P7" t="n">
-        <v>377.8051487213996</v>
+        <v>377.7839358857374</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -33878,28 +33971,28 @@
         <v>0.0518</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1536719439732212</v>
+        <v>0.1586322569409775</v>
       </c>
       <c r="J8" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K8" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L8" t="n">
-        <v>0.01627623855981952</v>
+        <v>0.01737995852884611</v>
       </c>
       <c r="M8" t="n">
-        <v>7.063939469787028</v>
+        <v>7.066300658700782</v>
       </c>
       <c r="N8" t="n">
-        <v>81.13357584397029</v>
+        <v>81.11274837687301</v>
       </c>
       <c r="O8" t="n">
-        <v>9.007417823325966</v>
+        <v>9.006261620498986</v>
       </c>
       <c r="P8" t="n">
-        <v>381.0477239619206</v>
+        <v>380.9968181722766</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -33956,28 +34049,28 @@
         <v>0.0557</v>
       </c>
       <c r="I9" t="n">
-        <v>0.08158527659922143</v>
+        <v>0.08224317613839315</v>
       </c>
       <c r="J9" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K9" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L9" t="n">
-        <v>0.004469533707725293</v>
+        <v>0.00456966063628006</v>
       </c>
       <c r="M9" t="n">
-        <v>6.671518296350494</v>
+        <v>6.653748749983592</v>
       </c>
       <c r="N9" t="n">
-        <v>84.46262764007744</v>
+        <v>84.20180665457103</v>
       </c>
       <c r="O9" t="n">
-        <v>9.190355142217163</v>
+        <v>9.176154240997207</v>
       </c>
       <c r="P9" t="n">
-        <v>386.3347104060728</v>
+        <v>386.3280070938936</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -34034,28 +34127,28 @@
         <v>0.0523</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1056034686851138</v>
+        <v>0.1088661457997362</v>
       </c>
       <c r="J10" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K10" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L10" t="n">
-        <v>0.005921528736927417</v>
+        <v>0.006322710407869025</v>
       </c>
       <c r="M10" t="n">
-        <v>8.10916521235831</v>
+        <v>8.100421441155431</v>
       </c>
       <c r="N10" t="n">
-        <v>107.0130556350196</v>
+        <v>106.7834300008725</v>
       </c>
       <c r="O10" t="n">
-        <v>10.34471148147785</v>
+        <v>10.33360682437998</v>
       </c>
       <c r="P10" t="n">
-        <v>382.8265941198298</v>
+        <v>382.793297978768</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -34112,28 +34205,28 @@
         <v>0.0638</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1575891450251891</v>
+        <v>0.1561443540166482</v>
       </c>
       <c r="J11" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K11" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01666563870911864</v>
+        <v>0.01646075571411953</v>
       </c>
       <c r="M11" t="n">
-        <v>6.711059902070315</v>
+        <v>6.698175475568107</v>
       </c>
       <c r="N11" t="n">
-        <v>83.61952342813038</v>
+        <v>83.38262115906583</v>
       </c>
       <c r="O11" t="n">
-        <v>9.144371133551523</v>
+        <v>9.131408498094137</v>
       </c>
       <c r="P11" t="n">
-        <v>377.1644800414621</v>
+        <v>377.1791992941821</v>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr">
@@ -34190,28 +34283,28 @@
         <v>0.0677</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1654352594998214</v>
+        <v>0.1656378553336409</v>
       </c>
       <c r="J12" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K12" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02144492175171109</v>
+        <v>0.02162168899411354</v>
       </c>
       <c r="M12" t="n">
-        <v>6.399381004556159</v>
+        <v>6.381036519415954</v>
       </c>
       <c r="N12" t="n">
-        <v>71.52382583439601</v>
+        <v>71.30682339765566</v>
       </c>
       <c r="O12" t="n">
-        <v>8.457175996418426</v>
+        <v>8.444336764817924</v>
       </c>
       <c r="P12" t="n">
-        <v>378.2502386939831</v>
+        <v>378.2481738426923</v>
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr">
@@ -34268,28 +34361,28 @@
         <v>0.0578</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2126715320812152</v>
+        <v>0.2164194946831319</v>
       </c>
       <c r="J13" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K13" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L13" t="n">
-        <v>0.02541195342099101</v>
+        <v>0.02640376052577198</v>
       </c>
       <c r="M13" t="n">
-        <v>7.751559998277391</v>
+        <v>7.747939543147524</v>
       </c>
       <c r="N13" t="n">
-        <v>99.86407554943027</v>
+        <v>99.70247168973687</v>
       </c>
       <c r="O13" t="n">
-        <v>9.993201466468605</v>
+        <v>9.985112502607913</v>
       </c>
       <c r="P13" t="n">
-        <v>381.969101461012</v>
+        <v>381.9308289459851</v>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
@@ -34346,28 +34439,28 @@
         <v>0.065</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2143775201897604</v>
+        <v>0.2105599950113564</v>
       </c>
       <c r="J14" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K14" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0316055966724027</v>
+        <v>0.03064580313727838</v>
       </c>
       <c r="M14" t="n">
-        <v>7.056338211922403</v>
+        <v>7.054325228485403</v>
       </c>
       <c r="N14" t="n">
-        <v>82.34054808680482</v>
+        <v>82.23612535149867</v>
       </c>
       <c r="O14" t="n">
-        <v>9.07416927805542</v>
+        <v>9.068413607213705</v>
       </c>
       <c r="P14" t="n">
-        <v>387.4980524623626</v>
+        <v>387.5364180575395</v>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr">
@@ -34424,28 +34517,28 @@
         <v>0.0516</v>
       </c>
       <c r="I15" t="n">
-        <v>0.2102221150505627</v>
+        <v>0.2066127864290837</v>
       </c>
       <c r="J15" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K15" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L15" t="n">
-        <v>0.03211864978517565</v>
+        <v>0.03119168098772884</v>
       </c>
       <c r="M15" t="n">
-        <v>6.779921366609031</v>
+        <v>6.777914515492351</v>
       </c>
       <c r="N15" t="n">
-        <v>77.75340817741478</v>
+        <v>77.64119975231328</v>
       </c>
       <c r="O15" t="n">
-        <v>8.817789302167226</v>
+        <v>8.811424388389954</v>
       </c>
       <c r="P15" t="n">
-        <v>389.878970552391</v>
+        <v>389.9151666348423</v>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr">
@@ -34496,28 +34589,28 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
-        <v>0.213432948569236</v>
+        <v>0.2126215174477443</v>
       </c>
       <c r="J16" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K16" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L16" t="n">
-        <v>0.03045388850774355</v>
+        <v>0.03040595895677489</v>
       </c>
       <c r="M16" t="n">
-        <v>7.261000329659713</v>
+        <v>7.243110176418035</v>
       </c>
       <c r="N16" t="n">
-        <v>85.0051654926944</v>
+        <v>84.75156996947322</v>
       </c>
       <c r="O16" t="n">
-        <v>9.219824591210747</v>
+        <v>9.20606158840322</v>
       </c>
       <c r="P16" t="n">
-        <v>388.2142507379578</v>
+        <v>388.2223390326454</v>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr">
@@ -34574,28 +34667,28 @@
         <v>0.0585</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1857289004220442</v>
+        <v>0.1845012290420545</v>
       </c>
       <c r="J17" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K17" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02515455285215551</v>
+        <v>0.02496743383593192</v>
       </c>
       <c r="M17" t="n">
-        <v>6.998104143298701</v>
+        <v>6.984057736795114</v>
       </c>
       <c r="N17" t="n">
-        <v>78.04603558253937</v>
+        <v>77.82683140482928</v>
       </c>
       <c r="O17" t="n">
-        <v>8.834366733532143</v>
+        <v>8.821951677765487</v>
       </c>
       <c r="P17" t="n">
-        <v>388.3520632938644</v>
+        <v>388.3644277776161</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr">
@@ -34652,28 +34745,28 @@
         <v>0.0579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1650839539445035</v>
+        <v>0.1585835979366191</v>
       </c>
       <c r="J18" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K18" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01720782785578168</v>
+        <v>0.01591717271837279</v>
       </c>
       <c r="M18" t="n">
-        <v>7.366256871653155</v>
+        <v>7.380807168330079</v>
       </c>
       <c r="N18" t="n">
-        <v>90.96942884692992</v>
+        <v>91.12070897352231</v>
       </c>
       <c r="O18" t="n">
-        <v>9.5377895157594</v>
+        <v>9.5457167867857</v>
       </c>
       <c r="P18" t="n">
-        <v>388.3513255405293</v>
+        <v>388.417016556726</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
@@ -34724,28 +34817,28 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
-        <v>0.2032077347516154</v>
+        <v>0.1981735687743318</v>
       </c>
       <c r="J19" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K19" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L19" t="n">
-        <v>0.02087717982711523</v>
+        <v>0.01994689180933418</v>
       </c>
       <c r="M19" t="n">
-        <v>8.002363523730512</v>
+        <v>8.005100853655849</v>
       </c>
       <c r="N19" t="n">
-        <v>111.0519469407768</v>
+        <v>110.9608716554095</v>
       </c>
       <c r="O19" t="n">
-        <v>10.5381187571965</v>
+        <v>10.53379664012029</v>
       </c>
       <c r="P19" t="n">
-        <v>388.0837336111776</v>
+        <v>388.1351983311219</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr">
@@ -34802,28 +34895,28 @@
         <v>0.0516</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2418221350258802</v>
+        <v>0.2353745324370199</v>
       </c>
       <c r="J20" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K20" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03018811575827762</v>
+        <v>0.02871241666231372</v>
       </c>
       <c r="M20" t="n">
-        <v>7.960433249800809</v>
+        <v>7.967336498440423</v>
       </c>
       <c r="N20" t="n">
-        <v>109.4278590186372</v>
+        <v>109.4841276917822</v>
       </c>
       <c r="O20" t="n">
-        <v>10.46077717087202</v>
+        <v>10.46346633252013</v>
       </c>
       <c r="P20" t="n">
-        <v>388.3235081034548</v>
+        <v>388.3885372797745</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr">
@@ -34880,28 +34973,28 @@
         <v>0.0517</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1216665597910388</v>
+        <v>0.1158219710182512</v>
       </c>
       <c r="J21" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K21" t="n">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L21" t="n">
-        <v>0.008908022474583333</v>
+        <v>0.00810763035209594</v>
       </c>
       <c r="M21" t="n">
-        <v>7.427082475737936</v>
+        <v>7.433340396501833</v>
       </c>
       <c r="N21" t="n">
-        <v>97.06746065363352</v>
+        <v>97.05046908217125</v>
       </c>
       <c r="O21" t="n">
-        <v>9.852282002340042</v>
+        <v>9.851419648059423</v>
       </c>
       <c r="P21" t="n">
-        <v>390.778072794181</v>
+        <v>390.8358533683045</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr">
@@ -34952,28 +35045,28 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
-        <v>0.1898470780442826</v>
+        <v>0.1844740819553357</v>
       </c>
       <c r="J22" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K22" t="n">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01696216623262248</v>
+        <v>0.01610603961821855</v>
       </c>
       <c r="M22" t="n">
-        <v>8.24425890533132</v>
+        <v>8.248243872912662</v>
       </c>
       <c r="N22" t="n">
-        <v>121.8288493667212</v>
+        <v>121.6758596530909</v>
       </c>
       <c r="O22" t="n">
-        <v>11.03761067290929</v>
+        <v>11.03067811392803</v>
       </c>
       <c r="P22" t="n">
-        <v>390.3994218161207</v>
+        <v>390.452589691437</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr">
@@ -35030,28 +35123,28 @@
         <v>0.055</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2204211219754746</v>
+        <v>0.1710803310037324</v>
       </c>
       <c r="J23" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K23" t="n">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L23" t="n">
-        <v>0.02146868415091985</v>
+        <v>0.01198184606262032</v>
       </c>
       <c r="M23" t="n">
-        <v>8.93909279158782</v>
+        <v>9.150396339385265</v>
       </c>
       <c r="N23" t="n">
-        <v>128.7181865292218</v>
+        <v>141.2091754350752</v>
       </c>
       <c r="O23" t="n">
-        <v>11.34540376228285</v>
+        <v>11.8831466975324</v>
       </c>
       <c r="P23" t="n">
-        <v>389.8559820358197</v>
+        <v>390.3454068151265</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr">
@@ -35108,28 +35201,28 @@
         <v>0.0537</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1927119187589866</v>
+        <v>0.1795506226182087</v>
       </c>
       <c r="J24" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="K24" t="n">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01473853844547635</v>
+        <v>0.0127678156351535</v>
       </c>
       <c r="M24" t="n">
-        <v>9.370767606443495</v>
+        <v>9.413631816944095</v>
       </c>
       <c r="N24" t="n">
-        <v>144.2130062077384</v>
+        <v>145.277441817734</v>
       </c>
       <c r="O24" t="n">
-        <v>12.00887197898864</v>
+        <v>12.053109217863</v>
       </c>
       <c r="P24" t="n">
-        <v>392.4110140430033</v>
+        <v>392.5426368674128</v>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
@@ -35167,7 +35260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y380"/>
+  <dimension ref="A1:Y381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78175,7 +78268,11 @@
         </is>
       </c>
       <c r="V380" t="inlineStr"/>
-      <c r="W380" t="inlineStr"/>
+      <c r="W380" t="inlineStr">
+        <is>
+          <t>-36.78796192302601,175.085351359999</t>
+        </is>
+      </c>
       <c r="X380" t="inlineStr">
         <is>
           <t>-36.78804168835318,175.08623622856564</t>
@@ -78184,6 +78281,133 @@
       <c r="Y380" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>-36.78503276121304,175.066912003987</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>-36.785312058226474,175.06774886456117</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>-36.78547868033322,175.06862293618303</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr">
+        <is>
+          <t>-36.78569696953211,175.06947868809186</t>
+        </is>
+      </c>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>-36.785774904902645,175.070379057737</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>-36.78603652852773,175.0712223063923</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>-36.786136730212036,175.07211541911846</t>
+        </is>
+      </c>
+      <c r="I381" t="inlineStr">
+        <is>
+          <t>-36.78635042179973,175.07295393774555</t>
+        </is>
+      </c>
+      <c r="J381" t="inlineStr">
+        <is>
+          <t>-36.78643034570463,175.07382187539636</t>
+        </is>
+      </c>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>-36.78662566681855,175.07470213839275</t>
+        </is>
+      </c>
+      <c r="L381" t="inlineStr">
+        <is>
+          <t>-36.78671097225966,175.07560210356223</t>
+        </is>
+      </c>
+      <c r="M381" t="inlineStr">
+        <is>
+          <t>-36.78674163429239,175.0765087366359</t>
+        </is>
+      </c>
+      <c r="N381" t="inlineStr">
+        <is>
+          <t>-36.78694586551243,175.07736977920106</t>
+        </is>
+      </c>
+      <c r="O381" t="inlineStr">
+        <is>
+          <t>-36.78702064789875,175.0782469401541</t>
+        </is>
+      </c>
+      <c r="P381" t="inlineStr">
+        <is>
+          <t>-36.787052139997755,175.07913589255574</t>
+        </is>
+      </c>
+      <c r="Q381" t="inlineStr">
+        <is>
+          <t>-36.787127343490745,175.08002964573848</t>
+        </is>
+      </c>
+      <c r="R381" t="inlineStr">
+        <is>
+          <t>-36.78728161996132,175.0809148760248</t>
+        </is>
+      </c>
+      <c r="S381" t="inlineStr">
+        <is>
+          <t>-36.78730383761628,175.08181121981036</t>
+        </is>
+      </c>
+      <c r="T381" t="inlineStr">
+        <is>
+          <t>-36.787365004615474,175.08270598969202</t>
+        </is>
+      </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>-36.78740777372731,175.0836026194349</t>
+        </is>
+      </c>
+      <c r="V381" t="inlineStr">
+        <is>
+          <t>-36.78743879619445,175.08450143773527</t>
+        </is>
+      </c>
+      <c r="W381" t="inlineStr">
+        <is>
+          <t>-36.78761118073696,175.0853928527334</t>
+        </is>
+      </c>
+      <c r="X381" t="inlineStr">
+        <is>
+          <t>-36.78769451914068,175.08628949980533</t>
+        </is>
+      </c>
+      <c r="Y381" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>

--- a/data/nzd0173/nzd0173.xlsx
+++ b/data/nzd0173/nzd0173.xlsx
@@ -33494,13 +33494,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0447</v>
+        <v>0.0613</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0506</v>
+        <v>0.078</v>
       </c>
       <c r="I2" t="n">
         <v>0.1335056367945378</v>
@@ -33572,13 +33572,13 @@
         <v>0.04546099452972743</v>
       </c>
       <c r="F3" t="n">
-        <v>0.045</v>
+        <v>0.055</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0436</v>
+        <v>0.0528</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0454</v>
+        <v>0.0623</v>
       </c>
       <c r="I3" t="n">
         <v>0.02003805814634898</v>
@@ -33653,10 +33653,10 @@
         <v>0.055</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0536</v>
+        <v>0.048</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0582</v>
+        <v>0.0708</v>
       </c>
       <c r="I4" t="n">
         <v>0.01512016659324351</v>
@@ -33728,13 +33728,13 @@
         <v>0.1363829835909272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.035</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0347</v>
+        <v>0.0447</v>
       </c>
       <c r="H5" t="n">
-        <v>0.037</v>
+        <v>0.0529</v>
       </c>
       <c r="I5" t="n">
         <v>0.09609123210097899</v>
@@ -33806,13 +33806,13 @@
         <v>0.1818436051206719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.035</v>
+        <v>0.055</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0349</v>
+        <v>0.0488</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0402</v>
+        <v>0.0607</v>
       </c>
       <c r="I6" t="n">
         <v>0.1297602629138865</v>
@@ -33884,13 +33884,13 @@
         <v>0.2273045996508489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.045</v>
+        <v>0.06</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0443</v>
+        <v>0.0522</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0489</v>
+        <v>0.0672</v>
       </c>
       <c r="I7" t="n">
         <v>0.1091162512649554</v>
@@ -33962,13 +33962,13 @@
         <v>0.2727652802615532</v>
       </c>
       <c r="F8" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0488</v>
+        <v>0.0592</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0518</v>
+        <v>0.07149999999999999</v>
       </c>
       <c r="I8" t="n">
         <v>0.1586322569409776</v>
@@ -34040,13 +34040,13 @@
         <v>0.3182262747935269</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0485</v>
+        <v>0.0523</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0557</v>
+        <v>0.0609</v>
       </c>
       <c r="I9" t="n">
         <v>0.08224317613839317</v>
@@ -34118,13 +34118,13 @@
         <v>0.3636294505834149</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05</v>
+        <v>0.075</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0447</v>
+        <v>0.0599</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0523</v>
+        <v>0.1018</v>
       </c>
       <c r="I10" t="n">
         <v>0.1088661457997363</v>
@@ -34196,13 +34196,13 @@
         <v>0.409090445113851</v>
       </c>
       <c r="F11" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0577</v>
+        <v>0.0582</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0638</v>
+        <v>0.0897</v>
       </c>
       <c r="I11" t="n">
         <v>0.1561706067263251</v>
@@ -34274,13 +34274,13 @@
         <v>0.4545335546147165</v>
       </c>
       <c r="F12" t="n">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0588</v>
+        <v>0.0502</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0677</v>
+        <v>0.0718</v>
       </c>
       <c r="I12" t="n">
         <v>0.1656191742795479</v>
@@ -34352,13 +34352,13 @@
         <v>0.4999945491445921</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0482</v>
+        <v>0.0613</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0578</v>
+        <v>0.08459999999999999</v>
       </c>
       <c r="I13" t="n">
         <v>0.2164194946831321</v>
@@ -34430,13 +34430,13 @@
         <v>0.5454555436736573</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0555</v>
+        <v>0.055</v>
       </c>
       <c r="H14" t="n">
-        <v>0.065</v>
+        <v>0.0725</v>
       </c>
       <c r="I14" t="n">
         <v>0.2105773088018608</v>
@@ -34511,10 +34511,10 @@
         <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0492</v>
+        <v>0.0467</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0516</v>
+        <v>0.0572</v>
       </c>
       <c r="I15" t="n">
         <v>0.2066127864290838</v>
@@ -34585,9 +34585,15 @@
       <c r="E16" t="n">
         <v>0.636324296344895</v>
       </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0499</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.063</v>
+      </c>
       <c r="I16" t="n">
         <v>0.2126031278880897</v>
       </c>
@@ -34658,13 +34664,13 @@
         <v>0.6817852908743967</v>
       </c>
       <c r="F17" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0538</v>
+        <v>0.0549</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0585</v>
+        <v>0.0679</v>
       </c>
       <c r="I17" t="n">
         <v>0.1845249569687738</v>
@@ -34736,13 +34742,13 @@
         <v>0.7272462854038982</v>
       </c>
       <c r="F18" t="n">
-        <v>0.055</v>
+        <v>0.06</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0536</v>
+        <v>0.053</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0579</v>
+        <v>0.06859999999999999</v>
       </c>
       <c r="I18" t="n">
         <v>0.1586074101683509</v>
@@ -34813,9 +34819,15 @@
       <c r="E19" t="n">
         <v>0.7727062997045354</v>
       </c>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0536</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0694</v>
+      </c>
       <c r="I19" t="n">
         <v>0.1981494441784416</v>
       </c>
@@ -34886,13 +34898,13 @@
         <v>0.8181672942331871</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05</v>
+        <v>0.055</v>
       </c>
       <c r="G20" t="n">
-        <v>0.049</v>
+        <v>0.0524</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0516</v>
+        <v>0.0623</v>
       </c>
       <c r="I20" t="n">
         <v>0.2353745324370197</v>
@@ -34964,13 +34976,13 @@
         <v>0.8636282887618083</v>
       </c>
       <c r="F21" t="n">
-        <v>0.05</v>
+        <v>0.065</v>
       </c>
       <c r="G21" t="n">
-        <v>0.049</v>
+        <v>0.0579</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0517</v>
+        <v>0.0815</v>
       </c>
       <c r="I21" t="n">
         <v>0.115821971018251</v>
@@ -35041,9 +35053,15 @@
       <c r="E22" t="n">
         <v>0.9090892832902768</v>
       </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0487</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0607</v>
+      </c>
       <c r="I22" t="n">
         <v>0.1844740819553358</v>
       </c>
@@ -35114,13 +35132,13 @@
         <v>0.9545390054699192</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0.049</v>
+        <v>0.0516</v>
       </c>
       <c r="H23" t="n">
-        <v>0.055</v>
+        <v>0.0674</v>
       </c>
       <c r="I23" t="n">
         <v>0.1710803310037327</v>
@@ -35192,13 +35210,13 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.045</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0464</v>
+        <v>0.0419</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0537</v>
+        <v>0.0461</v>
       </c>
       <c r="I24" t="n">
         <v>0.1795506226182088</v>
